--- a/octoberemails.xlsx
+++ b/octoberemails.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A555"/>
+  <dimension ref="A1:B555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,3885 +424,6660 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>05102023SAMPSON 68 SCHOOL LAND WOODS ROAD EXETER RI02822 D.SAGLIO@GMAIL.COM</t>
+          <t>05102023SAMPSON 68 SCHOOL LAND WOODS ROAD EXETER RI02822</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>D.SAGLIO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08282023SHANNON 26 WESTSIDE AVENUE NORTH ATTLEBOROUMA02760 VICTORIASHANNONBA@GMAIL.COM</t>
+          <t>08282023SHANNON 26 WESTSIDE AVENUE NORTH ATTLEBOROUMA02760</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>VICTORIASHANNONBA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>09062023GILSTRAP 280 JOSEPH DRIVE FALL RIVER MA02720 BIGGER4ME@ICLOUD.COM</t>
+          <t>09062023GILSTRAP 280 JOSEPH DRIVE FALL RIVER MA02720</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BIGGER4ME@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>09072023LUGUS 5 RIVERVIEW AVENUE WESTERLY RI02891 CHELSEYOBRIEN08@GMAIL.COM</t>
+          <t>09072023LUGUS 5 RIVERVIEW AVENUE WESTERLY RI02891</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CHELSEYOBRIEN08@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>09102023THRASHER 280 KELLEY BOULEVARD NORTH ATTLEBOROUMA02760 JMARIE1733@GMAIL.COM</t>
+          <t>09102023THRASHER 280 KELLEY BOULEVARD NORTH ATTLEBOROUMA02760</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JMARIE1733@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>09102023TORRES 520 SMITHFIELD ROAD APT UNIT 2NORTH PROVIDENCERI02904 ATORRES@NORTHEASTLEADERSHIP.ORG</t>
+          <t>09102023TORRES 520 SMITHFIELD ROAD APT UNIT 2NORTH PROVIDENCERI02904</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ATORRES@NORTHEASTLEADERSHIP.ORG</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>09112023RIENDEAU 234 CARRINGTON AVENUE WOONSOCKET RI02895 EMILIE3036@GMAIL.COM</t>
+          <t>09112023RIENDEAU 234 CARRINGTON AVENUE WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EMILIE3036@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>09132023LOSOYA 30 RUGGLES STREET APT 2 PROVIDENCE RI02908 KELLYLOSOYA2118@GMAIL.COM</t>
+          <t>09132023LOSOYA 30 RUGGLES STREET APT 2 PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>KELLYLOSOYA2118@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09142023PICKERING 9 POPLAR STREET WOONSOCKET RI02895 PICKERING.SOPHIE@OUTLOOK.COM</t>
+          <t>09142023PICKERING 9 POPLAR STREET WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PICKERING.SOPHIE@OUTLOOK.COM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09142023CABA 60 YEOMAN AVENUE CRANSTON RI02920 CCCCABA@ICLOUD.COM</t>
+          <t>09142023CABA 60 YEOMAN AVENUE CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CCCCABA@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>09152023ALLAIN 448 SMITHFIELD ROAD NORTH PROVIDENCERI02904 CHRISTINE.IAFRATE@YAHOO.COM</t>
+          <t>09152023ALLAIN 448 SMITHFIELD ROAD NORTH PROVIDENCERI02904</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CHRISTINE.IAFRATE@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>09172023AJANEL 117 BARRETT AVENUE APT FL 2 NORTH PROVIDENCERI02904 AJANEL4699@GMAIL.COM</t>
+          <t>09172023AJANEL 117 BARRETT AVENUE APT FL 2 NORTH PROVIDENCERI02904</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AJANEL4699@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>09172023PENA RAMOS 192 RHODES STREET APT 3 PROVIDENCE RI02903 JASLY_07@ICLOUD.COM</t>
+          <t>09172023PENA RAMOS 192 RHODES STREET APT 3 PROVIDENCE RI02903</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>JASLY_07@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>09172023TRIGUEIRO 25 FITZHUGH STREET APT 1 NORTH PROVIDENCERI02904 KAYLA.GAGNE18@GMAIL.COM</t>
+          <t>09172023TRIGUEIRO 25 FITZHUGH STREET APT 1 NORTH PROVIDENCERI02904</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>KAYLA.GAGNE18@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>09172023CHATTELLE 33 LACHANCE AVENUE WARWICK RI02889 JAYCENE11@YAHOO.COM</t>
+          <t>09172023CHATTELLE 33 LACHANCE AVENUE WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>JAYCENE11@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>09152023IRAHETA 31 NEW LONDON AVENUE APT 12 WEST WARWICK RI02893 IRAHETA@GMAIL.COM</t>
+          <t>09152023IRAHETA 31 NEW LONDON AVENUE APT 12 WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>IRAHETA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>09182023CLARK 38 WINTER AVENUE WARWICK RI02889 CLARK.CARRIE1@ICLOUD.COM</t>
+          <t>09182023CLARK 38 WINTER AVENUE WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CLARK.CARRIE1@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>09152023FIORILLO 128 SYCAMORE STREET SWANSEA MA02777 ANAPFIO777@GMAIL.COM</t>
+          <t>09152023FIORILLO 128 SYCAMORE STREET SWANSEA MA02777</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ANAPFIO777@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>09182023MAILLOUX 175 DEVONSHIRE STREET PROVIDENCE RI02908 TMAILLOUX08@GMAIL.COM</t>
+          <t>09182023MAILLOUX 175 DEVONSHIRE STREET PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TMAILLOUX08@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>09192023MONTEIRO 1222 HOPE STREET BRISTOL RI02809 QMMONTEIROTIMAS@GMAIL.COM</t>
+          <t>09192023MONTEIRO 1222 HOPE STREET BRISTOL RI02809</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>QMMONTEIROTIMAS@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>09182023KAETTERHENRY 88 HILL TOP AVENUE APT 3 PROVIDENCE RI02908 GRACECKAT@GMAIL.COM</t>
+          <t>09182023KAETTERHENRY 88 HILL TOP AVENUE APT 3 PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GRACECKAT@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>09192023LUGO 125 CLARENCE STREET APT 1 PROVIDENCE RI02909 PERLALUGO0122@GMAIL.COM</t>
+          <t>09192023LUGO 125 CLARENCE STREET APT 1 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PERLALUGO0122@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>09192023LAWTON 10 RAILROAD STREET APT 24C NORTH SMITHFIELDRI02876 MLAWTON1029@GMAIL.COM</t>
+          <t>09192023LAWTON 10 RAILROAD STREET APT 24C NORTH SMITHFIELDRI02876</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MLAWTON1029@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>09192023CHET 1312 CRANSTON STREET APT 1ST FCRANSTON RI02920 VOEUTH10@GMAIL.COM</t>
+          <t>09192023CHET 1312 CRANSTON STREET APT 1ST FCRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>VOEUTH10@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>09202023FIGUEROA 192 WEBSTER AVENUE APT 1 PROVIDENCE RI02909 YAMILEET1234@GMAIL.COM</t>
+          <t>09202023FIGUEROA 192 WEBSTER AVENUE APT 1 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>YAMILEET1234@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>09202023DAGGETT 57 NORSEMAN DRIVE PORTSMOUTH RI02871 KIRI95RIKU@YAHOO.COM</t>
+          <t>09202023DAGGETT 57 NORSEMAN DRIVE PORTSMOUTH RI02871</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>KIRI95RIKU@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>09202023VALTON 201 BAYVIEW AVENUE BRISTOL RI02809 MAGZ02895@GMAIL.COM</t>
+          <t>09202023VALTON 201 BAYVIEW AVENUE BRISTOL RI02809</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MAGZ02895@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>09202023CHAN 133 WINDWARD DRIVE PORTSMOUTH RI02871 BHOWARTH0440@GMAIL.COM</t>
+          <t>09202023CHAN 133 WINDWARD DRIVE PORTSMOUTH RI02871</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BHOWARTH0440@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>09202023REYNOLDS WALKER 285 CORYS LANE PORTSMOUTH RI02871 REYNOLDS.MARYKATE@GMAIL.COM</t>
+          <t>09202023REYNOLDS WALKER 285 CORYS LANE PORTSMOUTH RI02871</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>REYNOLDS.MARYKATE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>09202023DAVIS 26 WINCHESTER STREET PROVIDENCE RI02904 NYNYSMOMMIEX3@GMAIL.COM</t>
+          <t>09202023DAVIS 26 WINCHESTER STREET PROVIDENCE RI02904</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NYNYSMOMMIEX3@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>09202023WILLIAMS 125 HUNTS AVENUE PAWTUCKET RI02861 HJWILLIAMS082021@GMAIL.COM</t>
+          <t>09202023WILLIAMS 125 HUNTS AVENUE PAWTUCKET RI02861</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>HJWILLIAMS082021@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>09202023COOPER 11 LAKE AVENUE WAREHAM MA02538 KCOOP213@YAHOO.COM</t>
+          <t>09202023COOPER 11 LAKE AVENUE WAREHAM MA02538</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>KCOOP213@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>09202023ATAKLTE 32 WOODS LANE CRANSTON RI02921 FEVENATAKLTE14@GMAIL.COM</t>
+          <t>09202023ATAKLTE 32 WOODS LANE CRANSTON RI02921</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FEVENATAKLTE14@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>09202023ABREU OZUNA 201 SIMMONSVILLE AVENUE APT 2 JOHNSTON RI02919 HADELINABREU@HOTMAIL.COM</t>
+          <t>09202023ABREU OZUNA 201 SIMMONSVILLE AVENUE APT 2 JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>HADELINABREU@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>09202023ST YVES 31 SWAZEY ROAD SOMERSET MA02726 SAMANTHABORGES2017@GMAIL.COM</t>
+          <t>09202023ST YVES 31 SWAZEY ROAD SOMERSET MA02726</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SAMANTHABORGES2017@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>09202023VASQUEZ 204 WELLES STREET APT 2R WOONSOCKET RI02895 LENAVASQUEZ2001@GMAIL.COM</t>
+          <t>09202023VASQUEZ 204 WELLES STREET APT 2R WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>LENAVASQUEZ2001@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>09202023HAGERTY 1159 CURTIS CORNER ROAD SOUTH KINGSTOWN RI02879 KTH122289@GMAIL.COM</t>
+          <t>09202023HAGERTY 1159 CURTIS CORNER ROAD SOUTH KINGSTOWN RI02879</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>KTH122289@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>09212023HILL 1363 SMITH STREET APT 108 NORTH PROVIDENCERI02911 4HAYDENHILL@GMAIL.COM</t>
+          <t>09212023HILL 1363 SMITH STREET APT 108 NORTH PROVIDENCERI02911</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>4HAYDENHILL@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>09212023JOSEPH 12 CROWN STREET APT 1 PROVIDENCE RI02909 CLERMITEG@GMAIL.COM</t>
+          <t>09212023JOSEPH 12 CROWN STREET APT 1 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CLERMITEG@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>09212023MURPHY 50 CIRCLEDALE DRIVE CUMBERLAND RI02864 KELLY.A.MURPHY@COMCAST.NET</t>
+          <t>09212023MURPHY 50 CIRCLEDALE DRIVE CUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>KELLY.A.MURPHY@COMCAST.NET</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>09212023RIVERA RODRIGUEZ 33 GILMORE STREET APT 3 PROVIDENCE RI02907 RIVERARODRIGUEZLAYSA@ICLOUD.COM</t>
+          <t>09212023RIVERA RODRIGUEZ 33 GILMORE STREET APT 3 PROVIDENCE RI02907</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RIVERARODRIGUEZLAYSA@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>09212023SACKO 180 PLEASANT STREET APT 6 PAWTUCKET RI02860 SIDIBEBOUBOACAR69@GMAIL.COM</t>
+          <t>09212023SACKO 180 PLEASANT STREET APT 6 PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SIDIBEBOUBOACAR69@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>09212023LEVEILLER 155 UNIT STREET PROVIDENCE RI02909 LOVEBOSTON283@GMAIL.COM</t>
+          <t>09212023LEVEILLER 155 UNIT STREET PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>LOVEBOSTON283@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>09212023EVELYN 60 OGDEN STREET PROVIDENCE RI02906 SARAH.E.EVELYN@GMAIL.COM</t>
+          <t>09212023EVELYN 60 OGDEN STREET PROVIDENCE RI02906</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SARAH.E.EVELYN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>09212023HANG 62 LORETTA STREET CRANSTON RI02910 KAT.SKY.HANG@GMAIL.COM</t>
+          <t>09212023HANG 62 LORETTA STREET CRANSTON RI02910</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>KAT.SKY.HANG@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>09212023BROWN 12 SWEENEY LANE BRISTOL RI02809 ERINMACCHESNEY@GMAIL.COM</t>
+          <t>09212023BROWN 12 SWEENEY LANE BRISTOL RI02809</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ERINMACCHESNEY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>09222023PAGLIARO 102 MINT WATER BROOK LANE PORTSMOUTH RI02871 IBELLAPAG@GMAIL.COM</t>
+          <t>09222023PAGLIARO 102 MINT WATER BROOK LANE PORTSMOUTH RI02871</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>IBELLAPAG@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>09222023HERNANDEZ 40 FRIENDSHIP STREET WEST WARWICK RI02893 STACYHERNANDEZ717@GMAIL.COM</t>
+          <t>09222023HERNANDEZ 40 FRIENDSHIP STREET WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>STACYHERNANDEZ717@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>09222023GOON 100 TAUNTON STREET APT UNIT A1PLAINVILLE MA02762 ASHTA.DUGU@GMAIL.COM</t>
+          <t>09222023GOON 100 TAUNTON STREET APT UNIT A1PLAINVILLE MA02762</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ASHTA.DUGU@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>09222023AREVALO 195 PROGRESS AVENUE APT 2ND FLPROVIDENCE RI02909 CRISTINAARVALO@GMAIL.COM</t>
+          <t>09222023AREVALO 195 PROGRESS AVENUE APT 2ND FLPROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CRISTINAARVALO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>09222023PATRICK 254 WASHINGTON STREET APT 301 PROVIDENCE RI02903 JAMIKAXOXO@GMAIL.COM</t>
+          <t>09222023PATRICK 254 WASHINGTON STREET APT 301 PROVIDENCE RI02903</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>JAMIKAXOXO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>09222023OSORIO DE JESUS 104 VILLAGE ROAD APT 5 WOONSOCKET RI02895 RAYCHAOSORIO27@GMAIL.COM</t>
+          <t>09222023OSORIO DE JESUS 104 VILLAGE ROAD APT 5 WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RAYCHAOSORIO27@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>09222023PANSINI 83 JAMES BIRCH LANE SWANSEA MA02777 KRYSYGT@GMAIL.COM</t>
+          <t>09222023PANSINI 83 JAMES BIRCH LANE SWANSEA MA02777</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>KRYSYGT@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>09222023WESLEY 17 RED BARN COURT CRANSTON RI02920 CHELSEYLEE1@VERIZON.NET</t>
+          <t>09222023WESLEY 17 RED BARN COURT CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CHELSEYLEE1@VERIZON.NET</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>09222023FORTE 92 CHATWORTH AVENUE WARWICK RI02886 MOLLYMACDONALD91@GMAIL.COM</t>
+          <t>09222023FORTE 92 CHATWORTH AVENUE WARWICK RI02886</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MOLLYMACDONALD91@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>09222023GIORGI 45 CINDY LANE CRANSTON RI02921 RHENRY630@GMAIL.COM</t>
+          <t>09222023GIORGI 45 CINDY LANE CRANSTON RI02921</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>RHENRY630@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>09222023ROSENSTEIN 29 THAYER STREET PROVIDENCE RI02906 KARLAWITHAK27@GMAIL.COM</t>
+          <t>09222023ROSENSTEIN 29 THAYER STREET PROVIDENCE RI02906</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>KARLAWITHAK27@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>09222023LABASH 12 TAFT STREET SEEKONK MA02771 JENNIFERCURTI92@GMAIL.COM</t>
+          <t>09222023LABASH 12 TAFT STREET SEEKONK MA02771</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>JENNIFERCURTI92@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>09222023AGUASVIVAS LARA 13 MARIETTA STREET APT 1 PROVIDENCE RI02904 ROMEROYUGE@GMAIL.COM</t>
+          <t>09222023AGUASVIVAS LARA 13 MARIETTA STREET APT 1 PROVIDENCE RI02904</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ROMEROYUGE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>09222023CONWAY 51 MARBURY AVENUE PAWTUCKET RI02860 CONWAYPS@GMAIL.COM</t>
+          <t>09222023CONWAY 51 MARBURY AVENUE PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CONWAYPS@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>09222023ADAMS 5 CIDER COURT CUMBERLAND RI02864 JANNESCHMITT117@GMAIL.COM</t>
+          <t>09222023ADAMS 5 CIDER COURT CUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>JANNESCHMITT117@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>09232023GARCIA 7 HOME AVENUE APT 1 PROVIDENCE RI02908 DORALYSGARCIA891@GMAIL.COM</t>
+          <t>09232023GARCIA 7 HOME AVENUE APT 1 PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DORALYSGARCIA891@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>09232023YOUNG 264 DIAMOND HILL ROAD APT 1R WOONSOCKET RI02895 JYOUNG1121@YAHOO.COM</t>
+          <t>09232023YOUNG 264 DIAMOND HILL ROAD APT 1R WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>JYOUNG1121@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>09232023DASILVA 46 KRISTEE CIRCLE WEST WARWICK RI02893 ALDASILVA1994@GMAIL.COM</t>
+          <t>09232023DASILVA 46 KRISTEE CIRCLE WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ALDASILVA1994@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>09242023ACEVEDO DOMINGUEZ 106 SWEETBRIAR AVENUE EAST PROVIDENCE RI02915 JAELACV2@GMAIL.COM</t>
+          <t>09242023ACEVEDO DOMINGUEZ 106 SWEETBRIAR AVENUE EAST PROVIDENCE RI02915</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>JAELACV2@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>09242023MCGRATH 44 PAULHUS COURT PAWTUCKET RI02861 CATMCGRATH44@GMAIL.COM</t>
+          <t>09242023MCGRATH 44 PAULHUS COURT PAWTUCKET RI02861</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CATMCGRATH44@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>09222023ROBINSON 255 BALSAM ROAD SOUTH KINGSTOWN RI02879 LEAHCATHERINEROBINSON@GMAIL.COM</t>
+          <t>09222023ROBINSON 255 BALSAM ROAD SOUTH KINGSTOWN RI02879</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>LEAHCATHERINEROBINSON@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>09222023MULLANEY 60 WESTWIND ROAD SOUTH KINGSTOWN RI02879 SUSAN.MACKLER1@GMAIL.COM</t>
+          <t>09222023MULLANEY 60 WESTWIND ROAD SOUTH KINGSTOWN RI02879</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SUSAN.MACKLER1@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>09242023SULLIVAN 43 PIERCE STREET APT 3 WESTERLY RI02891 CHARLOTTESULLIVAN664@GMAIL.COM</t>
+          <t>09242023SULLIVAN 43 PIERCE STREET APT 3 WESTERLY RI02891</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CHARLOTTESULLIVAN664@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>09252023BRIGGS 774 PROVIDENCE STREET WEST WARWICK RI02893 JILLIANB91786@ICLOUD.COM</t>
+          <t>09252023BRIGGS 774 PROVIDENCE STREET WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>JILLIANB91786@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>09242023ANTONELLI 318 RING AVENUE WARWICK RI02888 MIKERANTONELLI@GMAIL.COM</t>
+          <t>09242023ANTONELLI 318 RING AVENUE WARWICK RI02888</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MIKERANTONELLI@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>09242023BLANCO-CHOVET 119 FRONT STREET APT 201 WOONSOCKET RI02895 GRACEMARIE.BC@GMAIL.COM</t>
+          <t>09242023BLANCO-CHOVET 119 FRONT STREET APT 201 WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>GRACEMARIE.BC@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>09222023ALVIZURES PANIAGUA 18 PEARL STREET NEWPORT RI02840 ALVIZURESEVELYN698@GMAIL.COM</t>
+          <t>09222023ALVIZURES PANIAGUA 18 PEARL STREET NEWPORT RI02840</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ALVIZURESEVELYN698@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>09242023MAIER 29 DEXTER STREET ATTLEBORO MA02703 SHANLEYBROWN417@GMAIL.COM</t>
+          <t>09242023MAIER 29 DEXTER STREET ATTLEBORO MA02703</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SHANLEYBROWN417@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>09242023HILARIO MORETA 152 HUDSON STREET APT 2 PROVIDENCE RI02909 YOKAURIZ.MORETA@HOTMAIL.COM</t>
+          <t>09242023HILARIO MORETA 152 HUDSON STREET APT 2 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>YOKAURIZ.MORETA@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>09242023CHANDRASEKARA 182 ALLEN AVENUE EAST PROVIDENCE RI02915 SHEREENUOC@GMAIL.COM</t>
+          <t>09242023CHANDRASEKARA 182 ALLEN AVENUE EAST PROVIDENCE RI02915</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SHEREENUOC@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>09242023MITCHELL 121 A STREET CRANSTON RI02920 ARIANNA.MITCH826@GMAIL.COM</t>
+          <t>09242023MITCHELL 121 A STREET CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ARIANNA.MITCH826@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>09242023MILLARD 60 GLENMERE DRIVE CRANSTON RI02920 ERIKAMMILLARD@GMAIL.COM</t>
+          <t>09242023MILLARD 60 GLENMERE DRIVE CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ERIKAMMILLARD@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>09242023BONNER 135 BUCKHILL ROAD BURRILLVILLE RI02859 KIRSTEN.BONNER@YAHOO.COM</t>
+          <t>09242023BONNER 135 BUCKHILL ROAD BURRILLVILLE RI02859</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>KIRSTEN.BONNER@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>09252023LEBRON BONES 26 CUTTING AVENUE APT 1 CRANSTON RI02920 KAILA.BONE17@GMAIL.COM</t>
+          <t>09252023LEBRON BONES 26 CUTTING AVENUE APT 1 CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>KAILA.BONE17@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>09252023ST GERMAIN 27 KENMORE STREET WEST WARWICK RI02893 HHANNAHSKYEE@ICLOUD.COM</t>
+          <t>09252023ST GERMAIN 27 KENMORE STREET WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>HHANNAHSKYEE@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>09252023AGAYBY 218 MOUNT HOPE STREET NORTH ATTLEBOROUMA02760 RACHAELAGAYBY@GMAIL.COM</t>
+          <t>09252023AGAYBY 218 MOUNT HOPE STREET NORTH ATTLEBOROUMA02760</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>RACHAELAGAYBY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>09252023MOREIRA RAMIREZ 669 ELMWOOD AVENUE APT UNIT C6PROVIDENCE RI02907 MAREIRASPRA@GMAIL.COM</t>
+          <t>09252023MOREIRA RAMIREZ 669 ELMWOOD AVENUE APT UNIT C6PROVIDENCE RI02907</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>MAREIRASPRA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>09252023OISHI 1697 CHALKSTONE AVENUE APT 1 PROVIDENCE RI02909 MIDO0510129@YAHOO.CO.JP.COM</t>
+          <t>09252023OISHI 1697 CHALKSTONE AVENUE APT 1 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>MIDO0510129@YAHOO.CO.JP.COM</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>09252023CHAUDARY 11 HUNTERS KNOLL SMITHFIELD RI02917 MYRA.ZEB@GMAIL.COM</t>
+          <t>09252023CHAUDARY 11 HUNTERS KNOLL SMITHFIELD RI02917</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MYRA.ZEB@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>09252023EHIWE 17 WARREN AVENUE JOHNSTON RI02919 M.EHIWE@YAHOO.COM</t>
+          <t>09252023EHIWE 17 WARREN AVENUE JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>M.EHIWE@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>09252023KARADZHAEVA 51 SHERMAN AVENUE CUMBERLAND RI02864 NURIDAKARADZHAEVA@GMAIL.COM</t>
+          <t>09252023KARADZHAEVA 51 SHERMAN AVENUE CUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>NURIDAKARADZHAEVA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>09252023MARCOUX 42 SOUTH MAIN STREET APT 2 BURRILLVILLE RI03859 S2754C37@GMAIL.COM</t>
+          <t>09252023MARCOUX 42 SOUTH MAIN STREET APT 2 BURRILLVILLE RI03859</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>S2754C37@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>09252023LESO 146 ROLLINGWOOD DRIVE NORTH KINGSTOWN RI02852 JOCELYNANN1@GMAIL.COM</t>
+          <t>09252023LESO 146 ROLLINGWOOD DRIVE NORTH KINGSTOWN RI02852</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>JOCELYNANN1@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>09252023CANCEL 80 EAST HILL DRIVE CRANSTON RI02920 BJTUTALO@GMAIL.COM</t>
+          <t>09252023CANCEL 80 EAST HILL DRIVE CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>BJTUTALO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>09252023COHEN 78 PARKSIDE DRIVE WARWICK RI02888 MLMILLER6287@GMAIL.COM</t>
+          <t>09252023COHEN 78 PARKSIDE DRIVE WARWICK RI02888</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MLMILLER6287@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>09252023DISALVO 5 MEADOW CIRCLE BARRINGTON RI02806 MEREDITHSTROKES@YAHOO.COM</t>
+          <t>09252023DISALVO 5 MEADOW CIRCLE BARRINGTON RI02806</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>MEREDITHSTROKES@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>09252023RACINE 197 B OLD COACH ROAD CHARLESTOWN RI02813 SARAHRACINESEMAIL@GMAIL.COM</t>
+          <t>09252023RACINE 197 B OLD COACH ROAD CHARLESTOWN RI02813</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SARAHRACINESEMAIL@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>09252023DEPERI 24 WHITMAN DRIVE NORTH KINGSTOWN RI02852 ALDEPERI@GMAIL.COM</t>
+          <t>09252023DEPERI 24 WHITMAN DRIVE NORTH KINGSTOWN RI02852</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ALDEPERI@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>09252023SHETH 21 EAST STREET APT UNIT B203 NORTH ATTLEBOROUMA02760 SHETHPRIYA1988@GMAIL.COM</t>
+          <t>09252023SHETH 21 EAST STREET APT UNIT B203 NORTH ATTLEBOROUMA02760</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SHETHPRIYA1988@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>09252023HORAN 84 COMMON FENCE BOULEVARD PORTSMOUTH RI02871 JHORAN90@GMAIL.COM</t>
+          <t>09252023HORAN 84 COMMON FENCE BOULEVARD PORTSMOUTH RI02871</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>JHORAN90@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>09252023VICKERS 25 VISCOUNT ROAD WARWICK RI02889 KAITLYNVICKERS20@GMAIL.COM</t>
+          <t>09252023VICKERS 25 VISCOUNT ROAD WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>KAITLYNVICKERS20@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>09262023GALVAN 3 MILLER CIRCLE JOHNSTON RI02919 A.CATALA988@GMAIL.COM</t>
+          <t>09262023GALVAN 3 MILLER CIRCLE JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>A.CATALA988@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>09252023NEARY 276 CURTIS CORNER ROAD SOUTH KINGSTOWN RI02879 CNEARY88@GMAIL.COM</t>
+          <t>09252023NEARY 276 CURTIS CORNER ROAD SOUTH KINGSTOWN RI02879</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>CNEARY88@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>09252023BRISSENDEN 42 CLINTON AVENUE JAMESTOWN RI02835 ASHLEYBRISS401@GMAIL.COM</t>
+          <t>09252023BRISSENDEN 42 CLINTON AVENUE JAMESTOWN RI02835</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ASHLEYBRISS401@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>09252023MAXWELL 477 PROVIDENCE NEW LONDON TURNNORTH STONINGTONCT06359 CATHERINEASWANSON@GMAIL.COM</t>
+          <t>09252023MAXWELL 477 PROVIDENCE NEW LONDON TURNNORTH STONINGTONCT06359</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>CATHERINEASWANSON@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>09222023KENNEDY 51 FARM STREET NORTH SMITHFIELDRI02896 CATHRYNRKENNEDY@GMAIL.COM</t>
+          <t>09222023KENNEDY 51 FARM STREET NORTH SMITHFIELDRI02896</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CATHRYNRKENNEDY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>09262023ARCE REYNOSO 47 FLETCHER STREET APT 2ND FL CENTRAL FALLS RI02863 JISSEL.ARCE@ICLOUD.COM</t>
+          <t>09262023ARCE REYNOSO 47 FLETCHER STREET APT 2ND FL CENTRAL FALLS RI02863</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>JISSEL.ARCE@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>09262023D'AGOSTINO 26 TRELLIS DRIVE WEST WARWICK RI02893 BNDAGOSTINO@GMAIL.COM</t>
+          <t>09262023D'AGOSTINO 26 TRELLIS DRIVE WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>BNDAGOSTINO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>09262023COOPER 212 SANDY LANE APT D204 WARWICK RI02889 MADDY.COOP27@GMAIL.COM</t>
+          <t>09262023COOPER 212 SANDY LANE APT D204 WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>MADDY.COOP27@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>09262023NORTON 20 STELLA STREET PROVIDENCE RI02909 ANAFEOLE@GMAIL.COM</t>
+          <t>09262023NORTON 20 STELLA STREET PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ANAFEOLE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>09262023AMARAL 136 CLEVELAND STREET WEST WARWICK RI02893 KRISTENAMARAL27@YAHOO.COM</t>
+          <t>09262023AMARAL 136 CLEVELAND STREET WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>KRISTENAMARAL27@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>09262023SHILO 21 MACOMBER STREET EAST TAUNTON MA02718 NATASHASONYAS@GMAIL.COM</t>
+          <t>09262023SHILO 21 MACOMBER STREET EAST TAUNTON MA02718</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>NATASHASONYAS@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>09262023SIMONS 120 MOCKINGBIRD DRIVE CRANSTON RI02920 LEAHHMARIEEX@AOL.COM</t>
+          <t>09262023SIMONS 120 MOCKINGBIRD DRIVE CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>LEAHHMARIEEX@AOL.COM</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>09262023NEILAN 903 PROVIDENCE PLACE APT 343 PROVIDENCE RI02903 MONICA.SILVESTRE1@GMAIL.COM</t>
+          <t>09262023NEILAN 903 PROVIDENCE PLACE APT 343 PROVIDENCE RI02903</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>MONICA.SILVESTRE1@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>09262023MILLER 1190 CHARLES STREET APT 2 NORTH PROVIDENCERI02904 JESSICACHIARAXO@ICLOUD.COM</t>
+          <t>09262023MILLER 1190 CHARLES STREET APT 2 NORTH PROVIDENCERI02904</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>JESSICACHIARAXO@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>09262023HENDLEY 17 INTREPID LANE JAMESTOWN RI02835 CARAHENDLEY@GMAIL.COM</t>
+          <t>09262023HENDLEY 17 INTREPID LANE JAMESTOWN RI02835</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>CARAHENDLEY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>09262023ORTEGA 135 CLARK AVENUE CRANSTON RI02920 AMBAR00425@GMAIL.COM</t>
+          <t>09262023ORTEGA 135 CLARK AVENUE CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>AMBAR00425@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>09262023BRADLEY 77 NEWLAND AVENUE APT 2 WOONSOCKET RI02985 THISLILCUTIES4U@AOL.COM</t>
+          <t>09262023BRADLEY 77 NEWLAND AVENUE APT 2 WOONSOCKET RI02985</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>THISLILCUTIES4U@AOL.COM</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>09262023FERRETTI 58 OAK TERRACE BURRILLVILLE RI02889 MACKENZIEFERRETTI@GMAIL.COM</t>
+          <t>09262023FERRETTI 58 OAK TERRACE BURRILLVILLE RI02889</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MACKENZIEFERRETTI@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>09262023CENTONZE 32 IRIS DRIVE CRANSTON RI02920 ARIANNACOLELLA5@GMAIL.COM</t>
+          <t>09262023CENTONZE 32 IRIS DRIVE CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ARIANNACOLELLA5@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>09262023FITZGERALD 67 SURF AVENUE WARWICK RI02889 RENSURP@GMAIL.COM</t>
+          <t>09262023FITZGERALD 67 SURF AVENUE WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>RENSURP@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>09262023PUJOLS SOTO 66 WESTFIELD STREET PROVIDENCE RI02907 JGRULLON20@GMAIL.COM</t>
+          <t>09262023PUJOLS SOTO 66 WESTFIELD STREET PROVIDENCE RI02907</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>JGRULLON20@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>09262023CONWAY 85 BLACKBURN STREET APT 2 WARWICK RI02886 KAILBUR122596@AOL.COM</t>
+          <t>09262023CONWAY 85 BLACKBURN STREET APT 2 WARWICK RI02886</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>KAILBUR122596@AOL.COM</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>09262023WICKLUND 170 SHUMANKANUC HILL ROAD CHARLESTOWN RI02813 ALW2022@MYYAHOO.COM</t>
+          <t>09262023WICKLUND 170 SHUMANKANUC HILL ROAD CHARLESTOWN RI02813</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ALW2022@MYYAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>09272023MORALES CRUZ 846 MAIN STREET APT 3 PAWTUCKET RI02860 SALAZAREDEL69@GMAIL.COM</t>
+          <t>09272023MORALES CRUZ 846 MAIN STREET APT 3 PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>SALAZAREDEL69@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>09272023LENNON 1386 CHOPMIST HILL ROAD SCITUATE RI02857 AKR626@GMAIL.COM</t>
+          <t>09272023LENNON 1386 CHOPMIST HILL ROAD SCITUATE RI02857</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>AKR626@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>09272023QUINN 360 HANDY STREET ATTLEBORO MA02703 MA081112@GMAIL.COM</t>
+          <t>09272023QUINN 360 HANDY STREET ATTLEBORO MA02703</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>MA081112@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>09272023LATSON 355 MAIN STREET SCITUATE RI02831 AUDREYLATSON@GMAIL.COM</t>
+          <t>09272023LATSON 355 MAIN STREET SCITUATE RI02831</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>AUDREYLATSON@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>09272023MORENO SANZ 12 1/2 ARNOLD STREET APT 3 PROVIDENCE RI02906 MORENOSANZ.CARMEN@GMAIL.COM</t>
+          <t>09272023MORENO SANZ 12 1/2 ARNOLD STREET APT 3 PROVIDENCE RI02906</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MORENOSANZ.CARMEN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>09272023STANDRING 3625 DIAMOND HILL ROAD APT 1 CUMBERLAND RI02864 SARASTANDY@YAHOO.COM</t>
+          <t>09272023STANDRING 3625 DIAMOND HILL ROAD APT 1 CUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>SARASTANDY@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>09272023DYER 22 FIELD AVENUE WEST WARWICK RI02893 JTDYER5589@GMAIL.COM</t>
+          <t>09272023DYER 22 FIELD AVENUE WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>JTDYER5589@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>09272023BATISTA 85 ONTARIO STREET APT 2ND FL PROVIDENCE RI02907 NEGRACHULA6682@GMAIL.COM</t>
+          <t>09272023BATISTA 85 ONTARIO STREET APT 2ND FL PROVIDENCE RI02907</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>NEGRACHULA6682@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>09272023CHOINIERE 56 CARMAN STREET CRANSTON RI02910 NANSE6984@HOTMAIL.COM</t>
+          <t>09272023CHOINIERE 56 CARMAN STREET CRANSTON RI02910</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>NANSE6984@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>09272023SCHWAGER 19 BOW STREET CRANSTON RI02905 CLARAGS36@GMAIL.COM</t>
+          <t>09272023SCHWAGER 19 BOW STREET CRANSTON RI02905</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>CLARAGS36@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>09272023SILVIA 399 SOUTH MAIN STREET WOONSOCKET RI02895 CALLIES51202@GMAIL.COM</t>
+          <t>09272023SILVIA 399 SOUTH MAIN STREET WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>CALLIES51202@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>09272023SCHOFIELD 86 PARKVIEW BOULEVARD CRANSTON RI02910 DSCHOFIELD912@GMAIL.COM</t>
+          <t>09272023SCHOFIELD 86 PARKVIEW BOULEVARD CRANSTON RI02910</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>DSCHOFIELD912@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>09272023OMOTOSHO 72 ANTHONY STREET EAST PROVIDENCE RI02914 LILA22425@YAHOO.COM</t>
+          <t>09272023OMOTOSHO 72 ANTHONY STREET EAST PROVIDENCE RI02914</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>LILA22425@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>09272023JARDIM 146 GROVE AVENUE EAST PROVIDENCE RI02914 PJJDLJ@OUTLOOK.COM</t>
+          <t>09272023JARDIM 146 GROVE AVENUE EAST PROVIDENCE RI02914</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>PJJDLJ@OUTLOOK.COM</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>09272023PATALANO 108 AURORA DRIVE WARWICK RI02889 LEPATALANO@MY.CCRI.EDU</t>
+          <t>09272023PATALANO 108 AURORA DRIVE WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>LEPATALANO@MY.CCRI.EDU</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>09272023YON 75 WALES STREET CRANSTON RI02920 FAITHYON1@GMAIL.COM</t>
+          <t>09272023YON 75 WALES STREET CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>FAITHYON1@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>09272023CAFARELLA 107 GRACE STREET CRANSTON RI02910 LJCAFARELLA@GMAIL.COM</t>
+          <t>09272023CAFARELLA 107 GRACE STREET CRANSTON RI02910</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>LJCAFARELLA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>09272023RAYHILL 255 CAROLINA BACK ROAD CHARLESTOWN RI02813 JCECILE13@AOL.COM</t>
+          <t>09272023RAYHILL 255 CAROLINA BACK ROAD CHARLESTOWN RI02813</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>JCECILE13@AOL.COM</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>09282023LARKIN 3 MOUNTAIN AVENUE NEW LONDON CT06320 NLARKIN66@GMAIL.COM</t>
+          <t>09282023LARKIN 3 MOUNTAIN AVENUE NEW LONDON CT06320</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>NLARKIN66@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>09282023GUSTAFSON 42 SOUTH FAIR STREET WARWICK RI02888 DEREK.J.GUSTAFSON@GMAIL.COM</t>
+          <t>09282023GUSTAFSON 42 SOUTH FAIR STREET WARWICK RI02888</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>DEREK.J.GUSTAFSON@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>09282023TROIA 34 SOPHIA DRIVE CRANSTON RI02921 BRIANATROIAJD@GMAIL.COM</t>
+          <t>09282023TROIA 34 SOPHIA DRIVE CRANSTON RI02921</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>BRIANATROIAJD@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>09282023PELLETIER 16 MONICA DRIVE CUMBERLAND RI02864 STEPHANIELOX7@GMAIL.COM</t>
+          <t>09282023PELLETIER 16 MONICA DRIVE CUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>STEPHANIELOX7@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>09282023SINGH 2573 DIAMOND HILL ROAD APT 11 WOONSOCKET RI02895 RAGHAVPRATEEK.88@GMAIL.COM</t>
+          <t>09282023SINGH 2573 DIAMOND HILL ROAD APT 11 WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>RAGHAVPRATEEK.88@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>09282023GARCIA KAISER 34 CELESTIAL HEIGHTS DRIVE SOUTH KINGSTOWN RI02879 SANDRA@ROCK82.COM</t>
+          <t>09282023GARCIA KAISER 34 CELESTIAL HEIGHTS DRIVE SOUTH KINGSTOWN RI02879</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>SANDRA@ROCK82.COM</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>09282023HARRIMAN 2 ABBEY LANE FOSTER RI02825 HARRIMAN92819@GMAIL.COM</t>
+          <t>09282023HARRIMAN 2 ABBEY LANE FOSTER RI02825</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>HARRIMAN92819@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>09282023MCNAMARA 42 VINCENT WAY CRANSTON RI02921 NGARLICK12@GMAIL.COM</t>
+          <t>09282023MCNAMARA 42 VINCENT WAY CRANSTON RI02921</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>NGARLICK12@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>09282023ROLDAN 298 SIMMONSVILLE AVENUE JOHNSTON RI02919 JOSLYNJUDITH22@GMAIL.COM</t>
+          <t>09282023ROLDAN 298 SIMMONSVILLE AVENUE JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>JOSLYNJUDITH22@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>09282023CATANZARO 53 PRIMROSE HILL ROAD BARRINGTON RI02806 KATHERINELEBLANC4@GMAIL.COM</t>
+          <t>09282023CATANZARO 53 PRIMROSE HILL ROAD BARRINGTON RI02806</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>KATHERINELEBLANC4@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>09282023HAGUPIT 4061 MENDON ROAD APT 2 CUMBERLAND RI02864 RENEE.HAGUPIT@GMAIL.COM</t>
+          <t>09282023HAGUPIT 4061 MENDON ROAD APT 2 CUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>RENEE.HAGUPIT@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>09282023MYLES 178 NARRAGANSETT STREET APT 2 CRANSTON RI02905 BRIANNA.MYLES@YAHOO.COM</t>
+          <t>09282023MYLES 178 NARRAGANSETT STREET APT 2 CRANSTON RI02905</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>BRIANNA.MYLES@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>09282023GBELLY-FLOMO 100 CENTRAL AVENUE NORTH PROVIDENCERI02911 MAIMAGBELLY@YAHOO.COM</t>
+          <t>09282023GBELLY-FLOMO 100 CENTRAL AVENUE NORTH PROVIDENCERI02911</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>MAIMAGBELLY@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>09282023SUJDAK 11 RIDGEWAY DRIVE WARREN RI02885 ASUJDAK12@GMAIL.COM</t>
+          <t>09282023SUJDAK 11 RIDGEWAY DRIVE WARREN RI02885</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ASUJDAK12@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>09282023SEROUSSI 30 HOLBROOK AVENUE EAST PROVIDENCE RI02916 CLSALTONSTALL@GMAIL.COM</t>
+          <t>09282023SEROUSSI 30 HOLBROOK AVENUE EAST PROVIDENCE RI02916</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>CLSALTONSTALL@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>09282023OMOLADUN-TIJANI 220 HIGHLAND CORPORATE DRIVE ACUMBERLAND RI02864 TOMOLADUN@GMAIL.COM</t>
+          <t>09282023OMOLADUN-TIJANI 220 HIGHLAND CORPORATE DRIVE ACUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>TOMOLADUN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>09282023LINARES 3 BLUE HERON LANE EASTON MA02375 KELSEYLINARES94@GMAIL.COM</t>
+          <t>09282023LINARES 3 BLUE HERON LANE EASTON MA02375</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>KELSEYLINARES94@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>09282023BLACKSTOCK 231 SMITH STREET WARWICK RI02886 AIMEE_BLACKSTOCK@YAHOO.COM</t>
+          <t>09282023BLACKSTOCK 231 SMITH STREET WARWICK RI02886</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>AIMEE_BLACKSTOCK@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>09282023KOEHLER 31 CENTENNIAL STREET COVENTRY RI02816 CAITLINROSE1911@YAHOO.COM</t>
+          <t>09282023KOEHLER 31 CENTENNIAL STREET COVENTRY RI02816</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>CAITLINROSE1911@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>09292023CAHOON 151 PHENIX AVENUE WEST WARWICK RI02893 MCAHOON81193@GMAIL.COM</t>
+          <t>09292023CAHOON 151 PHENIX AVENUE WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>MCAHOON81193@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>09282023BLIVEN 94 MATTHIUS LANE CHARLESTOWN RI02813 LMBLIVEN@GMAIL.COM</t>
+          <t>09282023BLIVEN 94 MATTHIUS LANE CHARLESTOWN RI02813</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>LMBLIVEN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>09282023STROMLEY 22 BELLEVUE AVENUE APT 1 WARWICK RI02888 JNSWANHOLM@GMAIL.COMK</t>
+          <t>09282023STROMLEY 22 BELLEVUE AVENUE APT 1 WARWICK RI02888</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>JNSWANHOLM@GMAIL.COMK</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>09292023HOLMES 268 USQUEPAUGH ROAD SOUTH KINGSTOWN RI02892 BCECIL20@GMAIL.COM</t>
+          <t>09292023HOLMES 268 USQUEPAUGH ROAD SOUTH KINGSTOWN RI02892</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>BCECIL20@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>09292023OLIVEIRA LIMA 16 PINE STREET NORTH PROVIDENCERI02911 SHELEE10092@YAHOO.COM</t>
+          <t>09292023OLIVEIRA LIMA 16 PINE STREET NORTH PROVIDENCERI02911</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>SHELEE10092@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>09292023THRASHER 51 BAL.COM STREET MANSFIELD MA02048 TINABEAN725@GMAIL.COM</t>
+          <t>09292023THRASHER 51 BAL.COM STREET MANSFIELD MA02048</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>TINABEAN725@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>09292023D'AMICO 60 DORMAN AVENUE NORTH PROVIDENCERI02904 KYLE.RPARISEAU@GMAIL.COM</t>
+          <t>09292023D'AMICO 60 DORMAN AVENUE NORTH PROVIDENCERI02904</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>KYLE.RPARISEAU@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>09292023DE PINA 15 AIGAN PLACE APT 2 PAWTUCKET RI02860 SDPINA.1990@GMAIL.COM</t>
+          <t>09292023DE PINA 15 AIGAN PLACE APT 2 PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>SDPINA.1990@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>09292023PHILDOR OSCAR 23 ONEIL STREET APT 2 PROVIDENCE RI02904 STEPHANIAOSCAR2405@GMAIL.COM</t>
+          <t>09292023PHILDOR OSCAR 23 ONEIL STREET APT 2 PROVIDENCE RI02904</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>STEPHANIAOSCAR2405@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>09292023FENTON 71 CANONCHET DRIVE PORTSMOUTH RI02871 MCMASTER21@GMAIL.COM</t>
+          <t>09292023FENTON 71 CANONCHET DRIVE PORTSMOUTH RI02871</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>MCMASTER21@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>09292023BROSSEAU 153 AMHERST AVENUE PAWTUCKET RI02860 BRIJET914@LIVE.COM</t>
+          <t>09292023BROSSEAU 153 AMHERST AVENUE PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>BRIJET914@LIVE.COM</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>09292023MOREAU 50 LARCHMERE DRIVE EAST PROVIDENCE RI02916 KAITLYNMOREAU1@GMAIL.COM</t>
+          <t>09292023MOREAU 50 LARCHMERE DRIVE EAST PROVIDENCE RI02916</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>KAITLYNMOREAU1@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>09292023FEROCE 500 MENDON ROAD APT UNIT 3E CUMBERLAND RI02864 ALEXFEROCE@GMAIL.COM</t>
+          <t>09292023FEROCE 500 MENDON ROAD APT UNIT 3E CUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ALEXFEROCE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>09292023PARRA GONZALEZ 64 BERGEN STREET APT 1 PROVIDENCE RI02908 JESMARY.PARRA@GMAIL.COM</t>
+          <t>09292023PARRA GONZALEZ 64 BERGEN STREET APT 1 PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>JESMARY.PARRA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>09292023ZELINSKY 28 FOUNTAIN AVENUE BARRINGTON RI02806 RACHEL.ZELINSKY@GMAIL.COM</t>
+          <t>09292023ZELINSKY 28 FOUNTAIN AVENUE BARRINGTON RI02806</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>RACHEL.ZELINSKY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>09302023ZULU 15 MAGILL STREET APT 2 PAWTUCKET RI02860 GWEAHZ3@GMAIL.COM</t>
+          <t>09302023ZULU 15 MAGILL STREET APT 2 PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>GWEAHZ3@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>09302023REILLY 20 ROBERTS WAY NORTH KINGSTOWN RI02852 STEPHANIELYNNREILLY@GMAIL.COM</t>
+          <t>09302023REILLY 20 ROBERTS WAY NORTH KINGSTOWN RI02852</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>STEPHANIELYNNREILLY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>10012023SOOD 99 WARNER STREET NEWPORT RI02840 SSOOD96@GMAIL.COM</t>
+          <t>10012023SOOD 99 WARNER STREET NEWPORT RI02840</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>SSOOD96@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>09302023REAVEY 37 WOODCREST DRIVE EAST PROVIDENCE RI02915 LEAHREAVEY@GMAIL.COM</t>
+          <t>09302023REAVEY 37 WOODCREST DRIVE EAST PROVIDENCE RI02915</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>LEAHREAVEY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>09302023BREESE 13 MIDDLE STREET WEST WARWICK RI02893 SWINSING4@HOTMAIL.COM</t>
+          <t>09302023BREESE 13 MIDDLE STREET WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>SWINSING4@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>09302023BOLDT 141 SCHOOL STREET APT 3RD FLOOCENTRAL FALLS RI02863 BOLDT.NIKKI@GMAIL.COM</t>
+          <t>09302023BOLDT 141 SCHOOL STREET APT 3RD FLOOCENTRAL FALLS RI02863</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>BOLDT.NIKKI@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>09302023RADICAN-WOOD 1603 PLAINFIELD PIKE APT E8 JOHNSTON RI02919 GINA.RADICAN@GMAIL.COM</t>
+          <t>09302023RADICAN-WOOD 1603 PLAINFIELD PIKE APT E8 JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>GINA.RADICAN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>09302023MOONEY 405 HOPE FURNACE ROAD SCITUATE RI02831 JUSTINEMOONEY@GMAIL.COM</t>
+          <t>09302023MOONEY 405 HOPE FURNACE ROAD SCITUATE RI02831</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>JUSTINEMOONEY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>09302023VAZQUEZ 66 HALLMARK DRIVE WARWICK RI02886 ERYBERY9@GMAIL.COM</t>
+          <t>09302023VAZQUEZ 66 HALLMARK DRIVE WARWICK RI02886</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ERYBERY9@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>09302023CLARK 26 WITHEY HILL ROAD PLAINFIELD CT06354 XOROBYNLYNNXO@GMAIL.COM</t>
+          <t>09302023CLARK 26 WITHEY HILL ROAD PLAINFIELD CT06354</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>XOROBYNLYNNXO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>09302023BUTZKE 11 REGALWOOD DRIVE COVENTRY RI02816 BRIEBUTZKE@GMAIL.COM</t>
+          <t>09302023BUTZKE 11 REGALWOOD DRIVE COVENTRY RI02816</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>BRIEBUTZKE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>10012023RAPOSO 476 LANGLEY STREET FALL RIVER MA02720 CSUITOR588@GMAIL.COM</t>
+          <t>10012023RAPOSO 476 LANGLEY STREET FALL RIVER MA02720</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>CSUITOR588@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>10012023A-KARIM 116 ELLERY STREET APT 3RD FL PROVIDENCE RI02909 RUQAYAH.AKARIM@GMAIL.COM</t>
+          <t>10012023A-KARIM 116 ELLERY STREET APT 3RD FL PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>RUQAYAH.AKARIM@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>10012023GOMES 64 FREDERICK STREET EAST PROVIDENCE RI02916 TRAVISJGOMES@HOTMAIL.COM</t>
+          <t>10012023GOMES 64 FREDERICK STREET EAST PROVIDENCE RI02916</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>TRAVISJGOMES@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>10012023SILVA 159 TANGENT STREET APT 1 EAST PROVIDENCE RI02914 T.SILVA0410@YAHOO.COM</t>
+          <t>10012023SILVA 159 TANGENT STREET APT 1 EAST PROVIDENCE RI02914</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>T.SILVA0410@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>10012023FAIOLA 46 SOUTH MAIN STREET APT 10 BURRILLVILLE RI02859 MANDA523@HOTMAIL.COM</t>
+          <t>10012023FAIOLA 46 SOUTH MAIN STREET APT 10 BURRILLVILLE RI02859</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>MANDA523@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>10012023MAYEN 27 GARLAND AVENUE CRANSTON RI02910 GENESI.MAYEN18@GMAIL.COM</t>
+          <t>10012023MAYEN 27 GARLAND AVENUE CRANSTON RI02910</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>GENESI.MAYEN18@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>10012023HAZARD 8 W CLIFFORD STREET APT C PROVIDENCE RI02907 ESSENCEHAZARD@GMAIL.COM</t>
+          <t>10012023HAZARD 8 W CLIFFORD STREET APT C PROVIDENCE RI02907</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ESSENCEHAZARD@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>10012023CARREIRO 22 CHERRY ROAD CRANSTON RI02905 JENNA.LEE.CARR@GMAIL.COM</t>
+          <t>10012023CARREIRO 22 CHERRY ROAD CRANSTON RI02905</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>JENNA.LEE.CARR@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>10012023PANTELAKIS 59 CAVALRY STREET CRANSTON RI02920 KERRINELIZABETH@GMAIL.COM</t>
+          <t>10012023PANTELAKIS 59 CAVALRY STREET CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>KERRINELIZABETH@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>10012023D'AMICO 50 HALEY ROAD WARWICK RI02889 DAMICOSAGE@GMAIL.COM</t>
+          <t>10012023D'AMICO 50 HALEY ROAD WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>DAMICOSAGE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>10012023THOMPSON 509 WASHINGTON STREET APT UNITCOVENTRY RI02816 ATHOMPSON1022@YAHOO.COM</t>
+          <t>10012023THOMPSON 509 WASHINGTON STREET APT UNITCOVENTRY RI02816</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ATHOMPSON1022@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>09302023ROSINHA 93 AMESBURY LANE LITTLE COMPTON RI02837 BROSINHA0410@GMAIL.COM</t>
+          <t>09302023ROSINHA 93 AMESBURY LANE LITTLE COMPTON RI02837</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>BROSINHA0410@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>09292023IQBAL 218 MAPLE STREET APT 2 NEWPORT RI02840 IQBALSONI88@GMAIL.COM</t>
+          <t>09292023IQBAL 218 MAPLE STREET APT 2 NEWPORT RI02840</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>IQBALSONI88@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>09302023SCHEER 107 LEGION WAY CRANSTON RI02910 JUSTINSCHEER16@GMAIL.COM</t>
+          <t>09302023SCHEER 107 LEGION WAY CRANSTON RI02910</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>JUSTINSCHEER16@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>10012023BULLOCK 336 FAIRFAX DRIVE WARWICK RI02888 PJB9724@HOTMAIL.COM</t>
+          <t>10012023BULLOCK 336 FAIRFAX DRIVE WARWICK RI02888</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>PJB9724@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>10012023WILSON 279 SAYLES AVENUE APT 2 PAWTUCKET RI02860 JYNESSAC.WILSON@GMAIL.COM</t>
+          <t>10012023WILSON 279 SAYLES AVENUE APT 2 PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>JYNESSAC.WILSON@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>10012023SEEBECK 41 SCHOOLHOUSE ROAD LISBON CT06351 VRABELEVAN@YAHOO.COM</t>
+          <t>10012023SEEBECK 41 SCHOOLHOUSE ROAD LISBON CT06351</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>VRABELEVAN@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>10012023PEZZULLO 42 OLD HOPE KENT ROAD SCITUATE RI02831 XTATE@MAIL.USF.EDU</t>
+          <t>10012023PEZZULLO 42 OLD HOPE KENT ROAD SCITUATE RI02831</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>XTATE@MAIL.USF.EDU</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>10022023LAK 31 ONEIDA STREET CRANSTON RI02920 ANITA.LAKLAK@GMAIL.COM</t>
+          <t>10022023LAK 31 ONEIDA STREET CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ANITA.LAKLAK@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>10022023DUEST-BOUCHER 854 NEWPORT AVENUE APT 3 PAWTUCKET RI02861 DESTINEE.DUEST@ICLOUD.COM</t>
+          <t>10022023DUEST-BOUCHER 854 NEWPORT AVENUE APT 3 PAWTUCKET RI02861</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>DESTINEE.DUEST@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>10022023ILLIANO 49 PLAINFIELD PIKE FOSTER RI02825 KAYLAILLIANO@GMAIL.COM</t>
+          <t>10022023ILLIANO 49 PLAINFIELD PIKE FOSTER RI02825</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>KAYLAILLIANO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>10022023HUOTH 116 MARLBOROUGH STREET CRANSTON RI02910 SEILEAKH@GMAIL.COM</t>
+          <t>10022023HUOTH 116 MARLBOROUGH STREET CRANSTON RI02910</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>SEILEAKH@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>10022023SMITH-ELION 65 FAIRVIEW AVENUE REHOBOTH MA02769 COURTNEYSMITHELION@GMAIL.COM</t>
+          <t>10022023SMITH-ELION 65 FAIRVIEW AVENUE REHOBOTH MA02769</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>COURTNEYSMITHELION@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>10022023FLORES 127 WARWICK STREET EAST PROVIDENCE RI02914 BRITTOLIVEIRA127@GMAIL.COM</t>
+          <t>10022023FLORES 127 WARWICK STREET EAST PROVIDENCE RI02914</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>BRITTOLIVEIRA127@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>10022023ARMSTRONG 50 WINSOR STREET CUMBERLAND RI02864 KATIELARMSTRONG@YAHOO.COM</t>
+          <t>10022023ARMSTRONG 50 WINSOR STREET CUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>KATIELARMSTRONG@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>09292023ALLEN 66 TYRON AVENUE EAST PROVIDENCE RI02916 CHRISTINAALYCE24@AOL.COM</t>
+          <t>09292023ALLEN 66 TYRON AVENUE EAST PROVIDENCE RI02916</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>CHRISTINAALYCE24@AOL.COM</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>10022023FLORES 230 MAGNOLIA STREET APT 2 PROVIDENCE RI02909 ZITRO_11VINA@HOTMAIL.COM</t>
+          <t>10022023FLORES 230 MAGNOLIA STREET APT 2 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ZITRO_11VINA@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>09292023HOHNECKER 5 LEDGEWOOD DRIVE LEDYARD CT06335 JAYCIEHOHNECKER@GMAIL.COM</t>
+          <t>09292023HOHNECKER 5 LEDGEWOOD DRIVE LEDYARD CT06335</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>JAYCIEHOHNECKER@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>09302023ROMANOFF 45 TOMAQUAG ROAD BRISTOL RI02808 ROMANOFFVANESSA143@GMAIL.COM</t>
+          <t>09302023ROMANOFF 45 TOMAQUAG ROAD BRISTOL RI02808</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ROMANOFFVANESSA143@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>10022023KWEH 42 WESLEYAN AVENUE APT 2R PROVIDENCE RI02907 MUEHLYNNEEWRAY@YAHOO.COM</t>
+          <t>10022023KWEH 42 WESLEYAN AVENUE APT 2R PROVIDENCE RI02907</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>MUEHLYNNEEWRAY@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>10022023PENAVARGAS 69 DOUGLAS AVENUE APT 4 PROVIDENCE RI02908 EMELYJP1418@GMAIL.COM</t>
+          <t>10022023PENAVARGAS 69 DOUGLAS AVENUE APT 4 PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>EMELYJP1418@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>10022023POTTER 6 COURTNEY LANE STERLING CT06377 BORGES.KRISTEN@GMAIL.COM</t>
+          <t>10022023POTTER 6 COURTNEY LANE STERLING CT06377</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>BORGES.KRISTEN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>10022023MICELI 11 CHARLES AVENUE WESTERLY RI02891 MEGKC1992@GMAIL.COM</t>
+          <t>10022023MICELI 11 CHARLES AVENUE WESTERLY RI02891</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>MEGKC1992@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>10022023QUINN 5 PHEASANT RUN ROAD STONINGTON CT06378 ALLWEDOISQUINN@GMAIL.COM</t>
+          <t>10022023QUINN 5 PHEASANT RUN ROAD STONINGTON CT06378</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ALLWEDOISQUINN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>10022023RESCH 141 WINIFRED AVENUE WARWICK RI02889 KAYLAMRESCH@GMAIL.COM</t>
+          <t>10022023RESCH 141 WINIFRED AVENUE WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>KAYLAMRESCH@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>10022023MEIR 12 HILLSIDE AVENUE NEWPORT RI02840 MEIR.TOM1@GMAIL.COM</t>
+          <t>10022023MEIR 12 HILLSIDE AVENUE NEWPORT RI02840</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>MEIR.TOM1@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>10022023DUPRE 79 COLEBROOK ROAD LITTLE COMPTON RI02837 NTSHMARCELINO@LIVE.COM</t>
+          <t>10022023DUPRE 79 COLEBROOK ROAD LITTLE COMPTON RI02837</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>NTSHMARCELINO@LIVE.COM</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>10032023LISI 74 HENRY STREET WOONSOCKET RI02895 KELSEALISI13@GMAIL.COM</t>
+          <t>10032023LISI 74 HENRY STREET WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>KELSEALISI13@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>10032023RAO 132 PALM STREET NORTH PROVIDENCERI02904 SARAKRAO@GMAIL.COM</t>
+          <t>10032023RAO 132 PALM STREET NORTH PROVIDENCERI02904</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>SARAKRAO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>10032023RAPOSO 82 TYRON AVENUE EAST PROVIDENCE RI02916 MRADLO1022@GMAIL.COM</t>
+          <t>10032023RAPOSO 82 TYRON AVENUE EAST PROVIDENCE RI02916</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>MRADLO1022@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>10032023GATES 3 BEVERLY DRIVE LINCOLN RI02865 NKS5DB@GMAIL.COM</t>
+          <t>10032023GATES 3 BEVERLY DRIVE LINCOLN RI02865</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>NKS5DB@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>10032023WILEY 18 SHEFFIELD DRIVE LINCOLN RI02865 BLWILEY2@GMAIL.COM</t>
+          <t>10032023WILEY 18 SHEFFIELD DRIVE LINCOLN RI02865</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>BLWILEY2@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>10032023ORIE 317 HIGH STREET SOMERSET MA02726 NATHAN_ORIE@YAHOO.COM</t>
+          <t>10032023ORIE 317 HIGH STREET SOMERSET MA02726</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>NATHAN_ORIE@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>10032023SMITH 234 R PLEASANT STREET REHOBOTH MA02769 JCORMIER1993@OUTLOOK.COM</t>
+          <t>10032023SMITH 234 R PLEASANT STREET REHOBOTH MA02769</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>JCORMIER1993@OUTLOOK.COM</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>10032023MALABRE 15 WINDMILL STREET APT 1 PROVIDENCE RI02904 SMALABRE@YAHOO.COM</t>
+          <t>10032023MALABRE 15 WINDMILL STREET APT 1 PROVIDENCE RI02904</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>SMALABRE@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>10032023VAZ 115 STANTON AVENUE APT 2 EAST PROVIDENCE RI02915 CVAZ682@GMAIL.COM</t>
+          <t>10032023VAZ 115 STANTON AVENUE APT 2 EAST PROVIDENCE RI02915</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>CVAZ682@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>10032023EARLEY 28 CHATWORTH AVENUE WARWICK RI02886 MKEARLEY24@GMAIL.COM</t>
+          <t>10032023EARLEY 28 CHATWORTH AVENUE WARWICK RI02886</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>MKEARLEY24@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>10032023POL GONZALEZ 256 UNION AVENUE APT 1 PROVIDENCE RI02909 LEONARDOCANIL26@GMAIL.COM</t>
+          <t>10032023POL GONZALEZ 256 UNION AVENUE APT 1 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>LEONARDOCANIL26@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>10032023BALZANO 5 SPINNAKER DRIVE EAST PROVIDENCE RI02915 CASSIEBALZANO@GMAIL.COM</t>
+          <t>10032023BALZANO 5 SPINNAKER DRIVE EAST PROVIDENCE RI02915</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>CASSIEBALZANO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>10032023ANDRADE 2 VINELAND AVENUE NORTH PROVIDENCERI02911 ESTRELATERESA@YAHOO.COM</t>
+          <t>10032023ANDRADE 2 VINELAND AVENUE NORTH PROVIDENCERI02911</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ESTRELATERESA@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>10032023SCHERBEN 15 TRIMTOWN ROAD SCITUATE RI02857 KATRINA.SCHERBEN@GMAIL.COM</t>
+          <t>10032023SCHERBEN 15 TRIMTOWN ROAD SCITUATE RI02857</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>KATRINA.SCHERBEN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>10032023POL GONZALEZ 55 BLISS AVENUE APT 4 ATTLEBORO MA02703 RACHELJEYRE12@GMAIL.COM</t>
+          <t>10032023POL GONZALEZ 55 BLISS AVENUE APT 4 ATTLEBORO MA02703</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>RACHELJEYRE12@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>10032023HERNANDEZ 223 WADSWORTH STREET PROVIDENCE RI02909 CAMEDUSA1209@GMAIL.COM</t>
+          <t>10032023HERNANDEZ 223 WADSWORTH STREET PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>CAMEDUSA1209@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>10032023JIMENEZ 25 SHAFTER STREET PROVIDENCE RI02909 MAJIMENEZ8855@GMAIL.COM</t>
+          <t>10032023JIMENEZ 25 SHAFTER STREET PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>MAJIMENEZ8855@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>10032023ALONZO PU 517 CRANSTON STREET APT 1ST FLCRANSTON RI02907 AM0713414@GMAIL.COM</t>
+          <t>10032023ALONZO PU 517 CRANSTON STREET APT 1ST FLCRANSTON RI02907</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>AM0713414@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>10042023TURCHETTI 41 BUNNY LANE BROOKLYN CT06234 EANOONAN3631@GMAIL.COM</t>
+          <t>10042023TURCHETTI 41 BUNNY LANE BROOKLYN CT06234</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>EANOONAN3631@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>10032023FURTADO 16 PROSPECT HILL AVENUE WEST WARWICK RI02893 AEXUS6598@GMAIL.COM</t>
+          <t>10032023FURTADO 16 PROSPECT HILL AVENUE WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>AEXUS6598@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>10042023FERREIRA 179 MESSER STREET APT 1ST FL PROVIDENCE RI02909 FERREIRASUNI86@YAHOO.COM</t>
+          <t>10042023FERREIRA 179 MESSER STREET APT 1ST FL PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>FERREIRASUNI86@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>10042023WEIS 18 MALLARD WAY EAST GREENWICH RI02818 MICHAEL.WEISJR@GMAIL.COM</t>
+          <t>10042023WEIS 18 MALLARD WAY EAST GREENWICH RI02818</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>MICHAEL.WEISJR@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>10042023PICKELL 22 MORGAN DRIVE NARRAGANSETT RI02882 BRYAN.B.PICKELL@GMAIL.COM</t>
+          <t>10042023PICKELL 22 MORGAN DRIVE NARRAGANSETT RI02882</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>BRYAN.B.PICKELL@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>10042023LEON GUARTAZACA 111 CENTRAL STREET APT 2 PAWTUCKET RI02860 GISSELALEON17@HOTMAIL.COM</t>
+          <t>10042023LEON GUARTAZACA 111 CENTRAL STREET APT 2 PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>GISSELALEON17@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>10042023MALDONADO 9 ELMIRA STREET NORTH PROVIDENCERI02904 JASMINEMN1991@GMAIL.COM</t>
+          <t>10042023MALDONADO 9 ELMIRA STREET NORTH PROVIDENCERI02904</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>JASMINEMN1991@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>10042023COLLINS 576 MOUNT HOPE AVENUE APT 3 FALL RIVER MA02724 MJ22COLLINS@AOL.COM</t>
+          <t>10042023COLLINS 576 MOUNT HOPE AVENUE APT 3 FALL RIVER MA02724</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>MJ22COLLINS@AOL.COM</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>10042023BANNING 210 BENEFIT STREET PAWTUCKET RI02861 DANIBANNING@GMAIL.COM</t>
+          <t>10042023BANNING 210 BENEFIT STREET PAWTUCKET RI02861</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>DANIBANNING@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>10042023DARKO 59 TAMPA AVENUE WARWICK RI02889 ROBERTADARKO@GMAIL.COM</t>
+          <t>10042023DARKO 59 TAMPA AVENUE WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>ROBERTADARKO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>10042023BARCHIE 65 LARCH DRIVE COVENTRY RI02816 BROOKEBARCHIE45@GMAIL.COM</t>
+          <t>10042023BARCHIE 65 LARCH DRIVE COVENTRY RI02816</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>BROOKEBARCHIE45@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>10042023CARR 234 POCASSET AVENUE APT 1 PROVIDENCE RI02909 BDJEKAYTAH@GMAIL.COM</t>
+          <t>10042023CARR 234 POCASSET AVENUE APT 1 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>BDJEKAYTAH@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>10052023O'CONNOR 233 NORWOOD AVENUE CRANSTON RI02905 ALEXANDRA.K.MONTGOMERY@GMAIL.COM</t>
+          <t>10052023O'CONNOR 233 NORWOOD AVENUE CRANSTON RI02905</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>ALEXANDRA.K.MONTGOMERY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>10042023MARTONE 106 FAIRVIEW AVENUE HOPKINTON RI02832 BRITTANYMARTONE21421@GMAIL.COM</t>
+          <t>10042023MARTONE 106 FAIRVIEW AVENUE HOPKINTON RI02832</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>BRITTANYMARTONE21421@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>10042023MATOS 119 WEST AVENUE APT 3 PAWTUCKET RI02860 MMATOS2112@GMAIL.COM</t>
+          <t>10042023MATOS 119 WEST AVENUE APT 3 PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>MMATOS2112@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>10052023BAENA 127 PERRY STREET CENTRAL FALLS RI02863 TBAENAA@GMAIL.COM</t>
+          <t>10052023BAENA 127 PERRY STREET CENTRAL FALLS RI02863</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>TBAENAA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>10042023MARSHALL 129 KENYON ROAD TIVERTON RI02878 EMMA.HOOKWAY@GMAIL.COM</t>
+          <t>10042023MARSHALL 129 KENYON ROAD TIVERTON RI02878</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>EMMA.HOOKWAY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>10052023MORAN 241 TUCKERMAN AVENUE MIDDLETOWN RI02840 MORANC890@GMAIL.COM</t>
+          <t>10052023MORAN 241 TUCKERMAN AVENUE MIDDLETOWN RI02840</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>MORANC890@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>10052023BATTISTA 220 GREENBUSH ROAD WEST WARWICK RI02893 KJ220GREENBUSH@GMAIL.COM</t>
+          <t>10052023BATTISTA 220 GREENBUSH ROAD WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>KJ220GREENBUSH@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>10052023TASICH 33 EAGLE NEST TERRACE SOUTH KINGSTOWN RI02879 CLTASICH15@GMAIL.COM</t>
+          <t>10052023TASICH 33 EAGLE NEST TERRACE SOUTH KINGSTOWN RI02879</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>CLTASICH15@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>10052023CRUZ JOHNSON 1168 CHALKSTONE AVENUE APT 1 PROVIDENCE RI02908 ALIZIECHARDAY@GMAIL.COM</t>
+          <t>10052023CRUZ JOHNSON 1168 CHALKSTONE AVENUE APT 1 PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>ALIZIECHARDAY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>10052023GOODWIN 63 MAPLEVILLE MAIN STREET BURRILLVILLE RI02839 HGOODWIN87@ICLOUD.COM</t>
+          <t>10052023GOODWIN 63 MAPLEVILLE MAIN STREET BURRILLVILLE RI02839</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>HGOODWIN87@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>10052023FREEMAN 20 CEDAR ISLAND ROAD NARRAGANSETT RI02882 KATIEDEGNAN1@GMAIL.COM</t>
+          <t>10052023FREEMAN 20 CEDAR ISLAND ROAD NARRAGANSETT RI02882</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>KATIEDEGNAN1@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>10052023CONNER 172 FAIRVIEW AVENUE REHOBOTH MA02769 CONNERLMC@GMAIL.COM</t>
+          <t>10052023CONNER 172 FAIRVIEW AVENUE REHOBOTH MA02769</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>CONNERLMC@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>10052023HAZARD 271 ORMS APT 3 PROVIDENCE RI02908 AZHANEX3@GMAIL.COM</t>
+          <t>10052023HAZARD 271 ORMS APT 3 PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>AZHANEX3@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>10052023MORENO 148 PUTNAM STREET APT 2ND FL PROVIDENCE RI02909 MANUELDIAZ1988@HOTMAI.COM</t>
+          <t>10052023MORENO 148 PUTNAM STREET APT 2ND FL PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>MANUELDIAZ1988@HOTMAI.COM</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>10052023FREEMAN 67 RIDGEWOOD ROAD CRANSTON RI02921 FANTAFREEMAN01@GMAIL.COM</t>
+          <t>10052023FREEMAN 67 RIDGEWOOD ROAD CRANSTON RI02921</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>FANTAFREEMAN01@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>10052023GUZMAN ROSARIO 46 DOVER STREET PAWTUCKET RI02861 ROSSY617@GMAIL.COM</t>
+          <t>10052023GUZMAN ROSARIO 46 DOVER STREET PAWTUCKET RI02861</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>ROSSY617@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>10052023OSORIO 285 ALABAMA AVENUE PROVIDENCE RI02905 OSORIOANANDELIA1@GMAIL.COM</t>
+          <t>10052023OSORIO 285 ALABAMA AVENUE PROVIDENCE RI02905</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>OSORIOANANDELIA1@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>10052023RODRIGUES 169 MORRIS AVENUE APT 2ND FLOOPAWTUCKET RI02860 NOUNURS150211@GMAIL.COM</t>
+          <t>10052023RODRIGUES 169 MORRIS AVENUE APT 2ND FLOOPAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>NOUNURS150211@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>10052023QUEZADA 48 PRINCETON AVENUE PROVIDENCE RI02907 MDQUEZ@GMAIL.COM</t>
+          <t>10052023QUEZADA 48 PRINCETON AVENUE PROVIDENCE RI02907</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>MDQUEZ@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>10052023HARTLEY 141 SCOTT ROAD CUMBERLAND RI02864 MARYHARTLEY1@GMAIL.COM</t>
+          <t>10052023HARTLEY 141 SCOTT ROAD CUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>MARYHARTLEY1@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>10052023CARACCIA 75 WOOD STREET SOMERSET MA02726 STENZ.STEPH@GMAIL.COM</t>
+          <t>10052023CARACCIA 75 WOOD STREET SOMERSET MA02726</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>STENZ.STEPH@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>10052023PHITSALATH 55 ROSS STREET WOONSOCKET RI02895 SARAHPHITS@AOL.COM</t>
+          <t>10052023PHITSALATH 55 ROSS STREET WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>SARAHPHITS@AOL.COM</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>10052023REYES 90 MEADOW STREET APT 2 PAWTUCKET RI02860 BUEATY_QUEEN_17@YAHOO.COM</t>
+          <t>10052023REYES 90 MEADOW STREET APT 2 PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>BUEATY_QUEEN_17@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>10052023BROWN 209 LEXINGTON AVENUE APT 1 NORTH PROVIDENCERI02904 TLBROWN621@GMAIL.COM</t>
+          <t>10052023BROWN 209 LEXINGTON AVENUE APT 1 NORTH PROVIDENCERI02904</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>TLBROWN621@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>10052023ALABIAD 32 DROLET AVENUE PAWTUCKET RI02861 AMA2015@GATAR-MED.CORNELL.EDU</t>
+          <t>10052023ALABIAD 32 DROLET AVENUE PAWTUCKET RI02861</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>AMA2015@GATAR-MED.CORNELL.EDU</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>10052023ORTIZ 277 POTTERS AVENUE APT 1ST FL PROVIDENCE RI02905 CO483097@GMAIL.COM</t>
+          <t>10052023ORTIZ 277 POTTERS AVENUE APT 1ST FL PROVIDENCE RI02905</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>CO483097@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>10052023SHEEHAN 12 LENNON STREET PROVIDENCE RI02908 JOYLUNA87@GMAIL.COM</t>
+          <t>10052023SHEEHAN 12 LENNON STREET PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>JOYLUNA87@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>10052023FERNANDES 147 FISH ROAD TIVERTON RI02878 KACY.FERNANDES@OUTLOOK.COM</t>
+          <t>10052023FERNANDES 147 FISH ROAD TIVERTON RI02878</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>KACY.FERNANDES@OUTLOOK.COM</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>10062023BALUSAMY 170 CROSSING DRIVE APT 201 CUMBERLAND RI02864 PRIYADHARSHINI.B17@GMAIL.COM</t>
+          <t>10062023BALUSAMY 170 CROSSING DRIVE APT 201 CUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>PRIYADHARSHINI.B17@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>10062023HERNANDEZ 55 BURNSIDE STREET CRANSTON RI02910 ALEXA_HERNANDEZ2@YAHOO.COM</t>
+          <t>10062023HERNANDEZ 55 BURNSIDE STREET CRANSTON RI02910</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>ALEXA_HERNANDEZ2@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>10062023OGLE 46 GARDEN DRIVE EAST PROVIDENCE RI02915 ALISHA.OGLE94@GMAIL.COM</t>
+          <t>10062023OGLE 46 GARDEN DRIVE EAST PROVIDENCE RI02915</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>ALISHA.OGLE94@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>10062023LAZZARINO 28 EAST BEL AIR ROAD CRANSTON RI02920 ARIANA6690@YAHOO.COM</t>
+          <t>10062023LAZZARINO 28 EAST BEL AIR ROAD CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>ARIANA6690@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>10062023MURPHY 649 PLEASANT VALLEY PARKWAY PROVIDENCE RI02908 M.HAWKSLEY.MURPHY@GMAIL.COM</t>
+          <t>10062023MURPHY 649 PLEASANT VALLEY PARKWAY PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>M.HAWKSLEY.MURPHY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>10062023HOWARD 259 ARMSTRONG AVENUE WARWICK RI02889 HEATHERHOWARD85@GMAIL.COM</t>
+          <t>10062023HOWARD 259 ARMSTRONG AVENUE WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>HEATHERHOWARD85@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>10062023EBRAHIEM 162 ALBERT AVENUE CRANSTON RI02905 HEIDI_EBRAHIEM@HOTMAIL.COM</t>
+          <t>10062023EBRAHIEM 162 ALBERT AVENUE CRANSTON RI02905</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>HEIDI_EBRAHIEM@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>10062023HERNANDEZ 26 CHERRY HILL AVENUE WOONSOCKET RI02895 KRISLYHERNANDEZ21@GMAIL.COM</t>
+          <t>10062023HERNANDEZ 26 CHERRY HILL AVENUE WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>KRISLYHERNANDEZ21@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>10062023NUNEZ 752 PLAINFIELD STREET PROVIDENCE RI02909 FLOUSISHNUNEZ999@GMAIL.COM</t>
+          <t>10062023NUNEZ 752 PLAINFIELD STREET PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>FLOUSISHNUNEZ999@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>10062023MORENO 42 TOM LEE DRIVE NORTH SMITHFIELDRI02896 CALCESBYCHRISSY@GMAIL.COM</t>
+          <t>10062023MORENO 42 TOM LEE DRIVE NORTH SMITHFIELDRI02896</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>CALCESBYCHRISSY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>10062023BAUTISTA 2 NICKERSON STREET APT 2 PAWTUCKET RI02860 POLANCORONNY123@GMAIL.COM</t>
+          <t>10062023BAUTISTA 2 NICKERSON STREET APT 2 PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>POLANCORONNY123@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>10062023RIOS 890 DOUGLAS AVENUE APT 1ST FLOPROVIDENCE RI02908 OLGARIOS40.OR.OF.OR@GMAIL.COM</t>
+          <t>10062023RIOS 890 DOUGLAS AVENUE APT 1ST FLOPROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>OLGARIOS40.OR.OF.OR@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>10062023PAHL 50 WOONASQUATUCKET AVENUE APT NORTH PROVIDENCERI02911 SCRAPPIE1994@GMAIL.COM</t>
+          <t>10062023PAHL 50 WOONASQUATUCKET AVENUE APT NORTH PROVIDENCERI02911</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>SCRAPPIE1994@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>10062023DURAN 22 PEACH AVENUE APT 2 PROVIDENCE RI02906 LIVDURAN123@GMAIL.COM</t>
+          <t>10062023DURAN 22 PEACH AVENUE APT 2 PROVIDENCE RI02906</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>LIVDURAN123@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>10062023SMITH 188 FRUIT HILL AVENUE APT 1 NORTH PROVIDENCERI02911 SMITHKK1201@GMAIL.COM</t>
+          <t>10062023SMITH 188 FRUIT HILL AVENUE APT 1 NORTH PROVIDENCERI02911</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>SMITHKK1201@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>10062023SILVEIRA LEAL 4 SPRINGHOUSE TRAIL APT 32 SEEKONK MA02771 ERICALEAL1@OUTLOOK.COM</t>
+          <t>10062023SILVEIRA LEAL 4 SPRINGHOUSE TRAIL APT 32 SEEKONK MA02771</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>ERICALEAL1@OUTLOOK.COM</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>10062023PERRY 1231 KINGSTOWN ROAD APT 3 SOUTH KINGSTOWN RI02879 ADNP81613@YAHOO.COM</t>
+          <t>10062023PERRY 1231 KINGSTOWN ROAD APT 3 SOUTH KINGSTOWN RI02879</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>ADNP81613@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>10062023GOETZ 13 COTTAGE STREET JOHNSTON RI02919 BLANCAMERCED0228@GMAIL.COM</t>
+          <t>10062023GOETZ 13 COTTAGE STREET JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>BLANCAMERCED0228@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>10062023MCILMAIL 111 FREIGHT STREET APT 22 PAWTUCKET RI02860 KAITCAMARA@GMAIL.COM</t>
+          <t>10062023MCILMAIL 111 FREIGHT STREET APT 22 PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>KAITCAMARA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>10062023VINACCO 10 MECCA STREET NORTH PROVIDENCERI02904 LINDSAYVINACCO@ICLOUD.COM</t>
+          <t>10062023VINACCO 10 MECCA STREET NORTH PROVIDENCERI02904</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>LINDSAYVINACCO@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>10062023NOBRE 55 DEAN STREET PAWTUCKET RI02861 BERNONDORE96@GMAIL.COM</t>
+          <t>10062023NOBRE 55 DEAN STREET PAWTUCKET RI02861</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>BERNONDORE96@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>10072023MELITO 626 WOOD STREET BRISTOL RI02809 SOFIE.MELITO566@GMAIL.COM</t>
+          <t>10072023MELITO 626 WOOD STREET BRISTOL RI02809</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>SOFIE.MELITO566@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>10072023GUIDO 2556 MENDON ROAD CUMBERLAND RI02864 JANNELLE98@YAHOO.COM</t>
+          <t>10072023GUIDO 2556 MENDON ROAD CUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>JANNELLE98@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>10072023STRONG 312 ATLANTIC AVENUE WARWICK RI02888 SARAHSTRONG79@GMAIL.COM</t>
+          <t>10072023STRONG 312 ATLANTIC AVENUE WARWICK RI02888</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>SARAHSTRONG79@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>10082023ALLEN 1700 MAIN STREET APT C4 WEST WARWICK RI02893 HALEYALLEN65@GMAIL.COM</t>
+          <t>10082023ALLEN 1700 MAIN STREET APT C4 WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>HALEYALLEN65@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>10082023BASSETT 146 POCAHONTAS DRIVE WARWICK RI02888 CASEYBASSETT17@GMAIL.COM</t>
+          <t>10082023BASSETT 146 POCAHONTAS DRIVE WARWICK RI02888</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>CASEYBASSETT17@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>10082023MERLINO 21 HUNTERS CROSSING COVENTRY RI02816 BROOKELEONHARDT@YAHOO.COM</t>
+          <t>10082023MERLINO 21 HUNTERS CROSSING COVENTRY RI02816</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>BROOKELEONHARDT@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>10072023FURTADO 81 BLISS STREET EAST PROVIDENCE RI02914 FURTADO.VICTORIA@YAHOO.COM</t>
+          <t>10072023FURTADO 81 BLISS STREET EAST PROVIDENCE RI02914</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>FURTADO.VICTORIA@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>10072023POGNON 68 ROWAN STREET PROVIDENCE RI02908 KIMBERLY.POGNON@GMAIL.COM</t>
+          <t>10072023POGNON 68 ROWAN STREET PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>KIMBERLY.POGNON@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>10082023GASTON 100 FREEBORN STREET PORTSMOUTH RI02871 GASTON.BETHANY@GMAIL.COM</t>
+          <t>10082023GASTON 100 FREEBORN STREET PORTSMOUTH RI02871</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>GASTON.BETHANY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>10072023HILTON VILLAFRANCA 86 EMMETT STREET APT 1ST FLOORCENTRAL FALLS RI02863 KARINVILLAFRANCA85@HOTMAIL.COM</t>
+          <t>10072023HILTON VILLAFRANCA 86 EMMETT STREET APT 1ST FLOORCENTRAL FALLS RI02863</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>KARINVILLAFRANCA85@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>10072023COSTA 14 BISHOP HILL ROAD JOHNSTON RI02919 KATERINAXOXO@YAHOO.COM</t>
+          <t>10072023COSTA 14 BISHOP HILL ROAD JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>KATERINAXOXO@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>10072023HERNANDEZ 57 FOUNDRY STREET APT 2 CENTRAL FALLS RI02863 THALIAH841@GMAIL.COM</t>
+          <t>10072023HERNANDEZ 57 FOUNDRY STREET APT 2 CENTRAL FALLS RI02863</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>THALIAH841@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>10072023RAMSEY 18 SHADBUSH TRAIL SOUTH KINGSTOWN RI02879 RAMSEY.JULIAMARIE@GMAIL.COM</t>
+          <t>10072023RAMSEY 18 SHADBUSH TRAIL SOUTH KINGSTOWN RI02879</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>RAMSEY.JULIAMARIE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>10072023IXCUNA COLAJ 14 DORCHESTER AVENUE APT 2 PROVIDENCE RI02909 RUBIDIA93@ICLOUD.COM</t>
+          <t>10072023IXCUNA COLAJ 14 DORCHESTER AVENUE APT 2 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>RUBIDIA93@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>10072023BUHLER 72 EVERGREEN ROAD NORTH KINGSTOWN RI02852 SAMIBUHLER1616@OUTLOOK.COM</t>
+          <t>10072023BUHLER 72 EVERGREEN ROAD NORTH KINGSTOWN RI02852</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>SAMIBUHLER1616@OUTLOOK.COM</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>10072023BROWN 10 BELCOURT AVENUE BRISTOL RI02809 MARIAVBBROWN@GMAIL.COM</t>
+          <t>10072023BROWN 10 BELCOURT AVENUE BRISTOL RI02809</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>MARIAVBBROWN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>10072023HOPPER 11 CRESTVIEW CIRCLE SCITUATE RI02857 JESSYAFFA@GMAIL.COM</t>
+          <t>10072023HOPPER 11 CRESTVIEW CIRCLE SCITUATE RI02857</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>JESSYAFFA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>10072023AYALA 163 HILLCREST AVENUE PROVIDENCE RI02909 KEVINYFILOL92@GMAIL.COM</t>
+          <t>10072023AYALA 163 HILLCREST AVENUE PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>KEVINYFILOL92@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>10072023GONZALEZ TORRES 100 FILLMORE STREET APT C PROVIDENCE RI02908 KARLYANIEGONZALEZTORRES@GMAIL.COM</t>
+          <t>10072023GONZALEZ TORRES 100 FILLMORE STREET APT C PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>KARLYANIEGONZALEZTORRES@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>10072023MANTEAU 2 YALE AVENUE APT 2 PROVIDENCE RI02908 MAKAFUI.MANTEAU@GMAIL.COM</t>
+          <t>10072023MANTEAU 2 YALE AVENUE APT 2 PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>MAKAFUI.MANTEAU@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>10072023DISLA 36 LENOX STREET APT 2 PROVIDENCE RI02907 DISLA_VICKY@HOTMAIL.COM</t>
+          <t>10072023DISLA 36 LENOX STREET APT 2 PROVIDENCE RI02907</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>DISLA_VICKY@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>10072023SULLIVAN 83 METROPOLITAN DRIVE WARWICK RI02886 KEETOBEAUTY@YAHOO.COM</t>
+          <t>10072023SULLIVAN 83 METROPOLITAN DRIVE WARWICK RI02886</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>KEETOBEAUTY@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>10082023CORRIGAN 42 HAWTHORNE STREET NORTH PROVIDENCERI02904 CRCORRIGAN@OUTLOOK.COM</t>
+          <t>10082023CORRIGAN 42 HAWTHORNE STREET NORTH PROVIDENCERI02904</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>CRCORRIGAN@OUTLOOK.COM</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>10082023LUX CASTRO 107 ROSEDALE STREET APT 2 PROVIDENCE RI02909 CECILUX1982@GMAIL.COM</t>
+          <t>10082023LUX CASTRO 107 ROSEDALE STREET APT 2 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>CECILUX1982@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>10082023SHAO 84 SHEFFIELD ROAD CRANSTON RI02920 XUELINGSHAO@GMAIL.COM</t>
+          <t>10082023SHAO 84 SHEFFIELD ROAD CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>XUELINGSHAO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>10082023HUOT 15 MARDEN STREET APT 2 CRANSTON RI02910 FALL63713@GMAIL.COM</t>
+          <t>10082023HUOT 15 MARDEN STREET APT 2 CRANSTON RI02910</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>FALL63713@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>10082023SWITZER 184 WOONASQUATUCKET AVENUE APTNORTH PROVIDENCERI02911 KELSEYCREGG26@GMAIL.COM</t>
+          <t>10082023SWITZER 184 WOONASQUATUCKET AVENUE APTNORTH PROVIDENCERI02911</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>KELSEYCREGG26@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>10082023FELICIDADE BRITO 9 SULLIVAN STREET APT 1 NORTH PROVIDENCERI02904 JENNYCENTEIO5@GMAIL.COM</t>
+          <t>10082023FELICIDADE BRITO 9 SULLIVAN STREET APT 1 NORTH PROVIDENCERI02904</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>JENNYCENTEIO5@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>10082023ORTIZ 58 MANNING DRIVE EAST PROVIDENCE RI02915 REBECCAO12.21@GMAIL.COM</t>
+          <t>10082023ORTIZ 58 MANNING DRIVE EAST PROVIDENCE RI02915</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>REBECCAO12.21@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>10082023JIMENEZ 156 HANOVER STREET APT 1 CRANSTON RI02907 NARIALEYJIMENEZ@HOTMAIL.COM</t>
+          <t>10082023JIMENEZ 156 HANOVER STREET APT 1 CRANSTON RI02907</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>NARIALEYJIMENEZ@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>10082023CRUZ 49 SALMON STREET APT 301 PROVIDENCE RI02909 TOOTIE02906@GMAIL.COM</t>
+          <t>10082023CRUZ 49 SALMON STREET APT 301 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>TOOTIE02906@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>10082023MATOS POLANCO 15 APPLEGATE LANE APT 1 PROVIDENCE RI02905 DANIAMATOS97@GMAIL.COM</t>
+          <t>10082023MATOS POLANCO 15 APPLEGATE LANE APT 1 PROVIDENCE RI02905</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>DANIAMATOS97@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>10082023DELLAY 132 CIDER MILL ROAD NORTH SMITHFIELDRI02896 MAEGAND97@GMAIL.COM</t>
+          <t>10082023DELLAY 132 CIDER MILL ROAD NORTH SMITHFIELDRI02896</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>MAEGAND97@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>10082023MCLAUGHLIN 12 WINDSOR COURT PAWTUCKET RI02861 KMCLAUGHLIN02861@GMAIL.COM</t>
+          <t>10082023MCLAUGHLIN 12 WINDSOR COURT PAWTUCKET RI02861</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>KMCLAUGHLIN02861@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>10062023THOMPSON 60 PINE HILL ROAD JOHNSTON RI02919 XXALLIE223XX@GMAIL.COM</t>
+          <t>10062023THOMPSON 60 PINE HILL ROAD JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>XXALLIE223XX@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>10072023THOMASON 692 COTTAGE STREET PAWTUCKET RI02861 STEPHANIE.THOMASON98@GMAIL.COM</t>
+          <t>10072023THOMASON 692 COTTAGE STREET PAWTUCKET RI02861</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>STEPHANIE.THOMASON98@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>10082023ALVARADO 402 SOUTH MAIN STREET APT 1 WOONSOCKET RI02895 GISELISALVARADO@GMAIL.COM</t>
+          <t>10082023ALVARADO 402 SOUTH MAIN STREET APT 1 WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>GISELISALVARADO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>10092023AHLE 50 PARK ROW WEST APT 819 PROVIDENCE RI02903 SAMANTHAAHLE@GMAIL.COM</t>
+          <t>10092023AHLE 50 PARK ROW WEST APT 819 PROVIDENCE RI02903</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>SAMANTHAAHLE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>10062023BLOUNT 69 OLD FORT ROAD NEWPORT RI02840 A.VOIGT0124@GMAIL.COM</t>
+          <t>10062023BLOUNT 69 OLD FORT ROAD NEWPORT RI02840</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>A.VOIGT0124@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>10072023COFFIN 372 PURGATORY ROAD MIDDLETOWN RI02842 MARGARET.COFFIN@GMAIL.COM</t>
+          <t>10072023COFFIN 372 PURGATORY ROAD MIDDLETOWN RI02842</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>MARGARET.COFFIN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>10062023LANGDON 87 RESERVOIR ROAD MIDDLETOWN RI02842 JAYAPPEACH@GMAIL.COM</t>
+          <t>10062023LANGDON 87 RESERVOIR ROAD MIDDLETOWN RI02842</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>JAYAPPEACH@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>10062023JORGE 33 PEACH AVENUE PROVIDENCE RI02906 KAROLYNJORGE91@GMAIL.COM</t>
+          <t>10062023JORGE 33 PEACH AVENUE PROVIDENCE RI02906</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>KAROLYNJORGE91@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>10062023CABRERA NUNEZ 32 HOLLOW CIRCLE WEST WARWICK RI02893 DRQ.JULIOROSARIO01@GMAIL.COM</t>
+          <t>10062023CABRERA NUNEZ 32 HOLLOW CIRCLE WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>DRQ.JULIOROSARIO01@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>10092023MIRA 9B NOTRE DAME STREET APT SIDE CENTRAL FALLS RI02863 SMIRA0530@GMAIL.COM</t>
+          <t>10092023MIRA 9B NOTRE DAME STREET APT SIDE CENTRAL FALLS RI02863</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>SMIRA0530@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>10092023RENCURREL 35 PARK AVENUE APT 2 PORTSMOUTH RI02871 RENCURREL111@AOL.COM</t>
+          <t>10092023RENCURREL 35 PARK AVENUE APT 2 PORTSMOUTH RI02871</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>RENCURREL111@AOL.COM</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>10092023CHOINIERE 10 DESMARAIS STREET CUMBERLAND RI02864 BCHOINIERE81804@GMAIL.COM</t>
+          <t>10092023CHOINIERE 10 DESMARAIS STREET CUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>BCHOINIERE81804@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>10092023GLACKEN 90 JAMES STREET EAST PROVIDENCE RI02914 AURELYGLACKEN@GMAIL.COM</t>
+          <t>10092023GLACKEN 90 JAMES STREET EAST PROVIDENCE RI02914</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>AURELYGLACKEN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>10092023HABIB ALLAH 8 CLEAR MEADOW DRIVE NORTH PROVIDENCERI02911 MC.SARAHABIB@GMAIL.COM</t>
+          <t>10092023HABIB ALLAH 8 CLEAR MEADOW DRIVE NORTH PROVIDENCERI02911</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>MC.SARAHABIB@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>10092023PEREZ 6 AUDUBON LANE COVENTRY RI02831 VLUCYG@HOTMAIL.COM</t>
+          <t>10092023PEREZ 6 AUDUBON LANE COVENTRY RI02831</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>VLUCYG@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>10092023LOPES 80 CALDER STREET PAWTUCKET RI02860 LOU.FERNANDES1@ICLOUD.COM</t>
+          <t>10092023LOPES 80 CALDER STREET PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>LOU.FERNANDES1@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>10092023LUNA VILLANUEVA 26 ELMA STREET APT 1 PROVIDENCE RI02905 ROSHERLY721@GMAIL.COM</t>
+          <t>10092023LUNA VILLANUEVA 26 ELMA STREET APT 1 PROVIDENCE RI02905</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>ROSHERLY721@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>10092023HAZARD 675 ELMWOOD AVENUE APT 104 PROVIDENCE RI02907 RAKIEA2U@YAHOO.COM</t>
+          <t>10092023HAZARD 675 ELMWOOD AVENUE APT 104 PROVIDENCE RI02907</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>RAKIEA2U@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>10092023VERMA 102 MILL STREET APT 104 WOONSOCKET RI02895 KHARYAPRASANNA@GMAIL.COM</t>
+          <t>10092023VERMA 102 MILL STREET APT 104 WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>KHARYAPRASANNA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>10092023ARNDT 185 MENDON AVENUE APT 2 PAWTUCKET RI02861 KAYLAARNDT16@ICLOUD.COM</t>
+          <t>10092023ARNDT 185 MENDON AVENUE APT 2 PAWTUCKET RI02861</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>KAYLAARNDT16@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>10092023THOMPSON 14 BERNARD AVENUE BARRINGTON RI02806 ANDREWTHOMPSON555@GMAIL.COM</t>
+          <t>10092023THOMPSON 14 BERNARD AVENUE BARRINGTON RI02806</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>ANDREWTHOMPSON555@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>10092023SANTAMARIA 113 HARRISON AVENUE APT 2 WOONSOCKET RI02895 SSANTAMARIA96@LIVE.COM</t>
+          <t>10092023SANTAMARIA 113 HARRISON AVENUE APT 2 WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>SSANTAMARIA96@LIVE.COM</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>10102023DEZEME 66 ORDWAY STREET PAWTUCKET RI02860 OCCELINJOSEMARTINE91@GMAIL.COM</t>
+          <t>10102023DEZEME 66 ORDWAY STREET PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>OCCELINJOSEMARTINE91@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>10092023MARINO 34 SIXTH AVENUE WOONSOCKET RI02895 MARIACRUZXO@ICLOUD.COM</t>
+          <t>10092023MARINO 34 SIXTH AVENUE WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>MARIACRUZXO@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>10062023DEBOER 46 SAXONY DRIVE WARWICK RI02886 CAITLIN_SCANNELL@HOTMAIL.COM</t>
+          <t>10062023DEBOER 46 SAXONY DRIVE WARWICK RI02886</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>CAITLIN_SCANNELL@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>10092023KEYS 469 GREEN HOLLOW ROAD DANIELSON CT06239 HOLMES.TAYLOR44@GMAIL.COM</t>
+          <t>10092023KEYS 469 GREEN HOLLOW ROAD DANIELSON CT06239</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>HOLMES.TAYLOR44@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>10102023TIERNAN 169 CONANICUS AVENUE APT 10 JAMESTOWN RI02835 LAUX214317@GMAIL.COM</t>
+          <t>10102023TIERNAN 169 CONANICUS AVENUE APT 10 JAMESTOWN RI02835</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>LAUX214317@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>10102023TIERNAN 169 CONANICUS AVENUE APT 10 JAMESTOWN RI02835 LAUX214317@GMAIL.COM</t>
+          <t>10102023TIERNAN 169 CONANICUS AVENUE APT 10 JAMESTOWN RI02835</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>LAUX214317@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>10102023WILLIAMS 19 WATERMAN STREET BRISTOL RI02809 KATELE9@GMAIL.COM</t>
+          <t>10102023WILLIAMS 19 WATERMAN STREET BRISTOL RI02809</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>KATELE9@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>10102023SANCHEZ 232 BAKER STREET PROVIDENCE RI02905 NAYBEL809@GMAIL.COM</t>
+          <t>10102023SANCHEZ 232 BAKER STREET PROVIDENCE RI02905</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>NAYBEL809@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>10102023D'ANJOU 275 HILL ROAD BURRILLVILLE RI02830 EEMERS11@YAHOO.COM</t>
+          <t>10102023D'ANJOU 275 HILL ROAD BURRILLVILLE RI02830</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>EEMERS11@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>10092023COLSON 36 JACKSON COURT NEWPORT RI02840 KNSEEK@GMAIL.COM</t>
+          <t>10092023COLSON 36 JACKSON COURT NEWPORT RI02840</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>KNSEEK@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>10102023CINTRON 132 DODGE STREET APT 103 PROVIDENCE RI02907 DEYANIRA92493@GMAIL.COM</t>
+          <t>10102023CINTRON 132 DODGE STREET APT 103 PROVIDENCE RI02907</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>DEYANIRA92493@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>10102023TAMEO 315 SUMMER STREET REHOBOTH MA02769 MELISSA.TAMEO@HOTMAIL.COM</t>
+          <t>10102023TAMEO 315 SUMMER STREET REHOBOTH MA02769</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>MELISSA.TAMEO@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>10112023ANDRADE TEIXEIRA 22 KNIGHT STREET APT 1 CENTRAL FALLS RI02863 EUNICEANDRADE00300@GMAIL.COM</t>
+          <t>10112023ANDRADE TEIXEIRA 22 KNIGHT STREET APT 1 CENTRAL FALLS RI02863</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>EUNICEANDRADE00300@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>10112023SILVA 261 GROSVENOR AVENUE NORTH PROVIDENCERI02904 DALILAH29@GMAIL.COM</t>
+          <t>10112023SILVA 261 GROSVENOR AVENUE NORTH PROVIDENCERI02904</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>DALILAH29@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>10112023QUINONEZ 681 RIVER AVENUE APT 2 PROVIDENCE RI02908 YASIQUINONEZ78@GMAIL.COM</t>
+          <t>10112023QUINONEZ 681 RIVER AVENUE APT 2 PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>YASIQUINONEZ78@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>10102023BRISSETTE 689 WALLUM LAKE ROAD BURRILLVILLE RI02859 SPEECHTALKSIP@GMAIL.COM</t>
+          <t>10102023BRISSETTE 689 WALLUM LAKE ROAD BURRILLVILLE RI02859</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>SPEECHTALKSIP@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>10102023ZELAYA-RINCON 58 ROME AVENUE PROVIDENCE RI02908 BLANCA.ZELAYA.RINCON@GMAIL.COM</t>
+          <t>10102023ZELAYA-RINCON 58 ROME AVENUE PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>BLANCA.ZELAYA.RINCON@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>10102023THURBER 47 BARTON STREET APT 1 WOONSOCKET RI02895 BRIANNATHURBER@ICLOUD.COM</t>
+          <t>10102023THURBER 47 BARTON STREET APT 1 WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>BRIANNATHURBER@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>10102023SUAR MORENTE 63 HILLHURST AVENUE APT 2 PROVIDENCE RI02909 OSVALDOSANTOS7490@ICLOUD.COM</t>
+          <t>10102023SUAR MORENTE 63 HILLHURST AVENUE APT 2 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>OSVALDOSANTOS7490@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>10102023SWENSON 15 SUMMER STREET ATTLEBORO MA02703 DOUGANDMADDIE27@GMAIL.COM</t>
+          <t>10102023SWENSON 15 SUMMER STREET ATTLEBORO MA02703</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>DOUGANDMADDIE27@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>10102023RIVERA MILLORD 7 LOVEDAY STREET APT 1 PROVIDENCE RI02908 ANGELINE.MILLORD@GMAIL.COM</t>
+          <t>10102023RIVERA MILLORD 7 LOVEDAY STREET APT 1 PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>ANGELINE.MILLORD@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>10102023RODRIGUEZ ANTUNEZ 5 ALTON STREET APT 2 PROVIDENCE RI02908 FR2063998@GMAIL.COM</t>
+          <t>10102023RODRIGUEZ ANTUNEZ 5 ALTON STREET APT 2 PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>FR2063998@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>10102023FERNANDES 15 VINCENT AVENUE PAWTUCKET RI02860 SARASTAR00XXX@GMAIL.COM</t>
+          <t>10102023FERNANDES 15 VINCENT AVENUE PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>SARASTAR00XXX@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>10102023MORRIS 43 MADELINE DRIVE EAST PROVIDENCE RI02915 NEOMEMRRIS@MAC.COM</t>
+          <t>10102023MORRIS 43 MADELINE DRIVE EAST PROVIDENCE RI02915</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>NEOMEMRRIS@MAC.COM</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>10112023TORRES 26 CAPITAL STREET APT 2 PAWTUCKET RI02860 MAYLEEKTORRES@GMAIL.COM</t>
+          <t>10112023TORRES 26 CAPITAL STREET APT 2 PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>MAYLEEKTORRES@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>10112023BAQUE BRIONES 100 BABCOCK STREET PROVIDENCE RI02905 THALIABRIBAQUE@GMAIL.COM</t>
+          <t>10112023BAQUE BRIONES 100 BABCOCK STREET PROVIDENCE RI02905</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>THALIABRIBAQUE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>10112023BENJAMIN 12 CROWN STREET APT 1 PROVIDENCE RI02909 BENJAMINDENISE028@GMAIL.COM</t>
+          <t>10112023BENJAMIN 12 CROWN STREET APT 1 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>BENJAMINDENISE028@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>10112023LARANJO 116 CODY LANE RAYNHAM MA02767 ASHBAPTISTA623@GMAIL.COM</t>
+          <t>10112023LARANJO 116 CODY LANE RAYNHAM MA02767</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>ASHBAPTISTA623@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>10112023MATOS 187 COLUMBIA AVENUE APT D CRANSTON RI02905 JCMATOS50@GMAIL.COM</t>
+          <t>10112023MATOS 187 COLUMBIA AVENUE APT D CRANSTON RI02905</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>JCMATOS50@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>10112023TORRICO 21 KEARNEY STREET APT A CRANSTON RI02920 KARENTREALTY@GMAIL.COM</t>
+          <t>10112023TORRICO 21 KEARNEY STREET APT A CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>KARENTREALTY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>10112023BUTLER 630 SMITH STREET APT 3 PROVIDENCE RI02908 ESSENCEBUTLER77@GMAIL.COM</t>
+          <t>10112023BUTLER 630 SMITH STREET APT 3 PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>ESSENCEBUTLER77@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>10112023TANZI 397 BRANCH AVENUE APT 2 PROVIDENCE RI02904 AVIANNALYNN11@GMAIL.COM</t>
+          <t>10112023TANZI 397 BRANCH AVENUE APT 2 PROVIDENCE RI02904</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>AVIANNALYNN11@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>10122023BOURGET 639 ELM STREET APT 2F WOONSOCKET RI02895 TIAJB0124@ICLOUD.COM</t>
+          <t>10122023BOURGET 639 ELM STREET APT 2F WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>TIAJB0124@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>10122023MCMAUGH 188 HARMONY ROAD SCITUATE RI02857 CAITLINMPAGE94@GMAIL.COM</t>
+          <t>10122023MCMAUGH 188 HARMONY ROAD SCITUATE RI02857</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>CAITLINMPAGE94@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>10112023CHAY 166 CRESCENT AVENUE CRANSTON RI02910 JULIASCHAY7@GMAIL.COM</t>
+          <t>10112023CHAY 166 CRESCENT AVENUE CRANSTON RI02910</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>JULIASCHAY7@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>10112023KIRBY 37 BAYBERRY WAY WARWICK RI02889 KAITY_KIRBY@YAHOO.COM</t>
+          <t>10112023KIRBY 37 BAYBERRY WAY WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>KAITY_KIRBY@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>10112023ENGLE 6 ANDRE COURT HOPKINTON RI02804 SCONNORS31@GMAIL.COM</t>
+          <t>10112023ENGLE 6 ANDRE COURT HOPKINTON RI02804</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>SCONNORS31@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>10112023ZARTMAN 68 WESTMINSTER STREET WESTERLY RI02891 TFORTIN263@GMAIL.COM</t>
+          <t>10112023ZARTMAN 68 WESTMINSTER STREET WESTERLY RI02891</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>TFORTIN263@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>10112023ZARTMAN 68 WESTMINSTER STREET WESTERLY RI02891 TFORTIN263@GMAIL.COM</t>
+          <t>10112023ZARTMAN 68 WESTMINSTER STREET WESTERLY RI02891</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>TFORTIN263@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>10112023CURE 35 NEWPORT AVENUE NEWPORT RI02840 BROOKELINDAHOB@GMAIL.COM</t>
+          <t>10112023CURE 35 NEWPORT AVENUE NEWPORT RI02840</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>BROOKELINDAHOB@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>10122023PAPA 24 ORCHARD AVENUE SMITHFIELD RI02828 NIKKIMARINE@GMAIL.COM</t>
+          <t>10122023PAPA 24 ORCHARD AVENUE SMITHFIELD RI02828</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>NIKKIMARINE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>10122023BURTON 51 SANDERS AVENUE SEEKONK MA02771 ELIZABETHFLYNN527@GMAIL.COM</t>
+          <t>10122023BURTON 51 SANDERS AVENUE SEEKONK MA02771</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>ELIZABETHFLYNN527@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>10122023MULLER 100 C MAIN STREET SCITUATE RI02831 EMILYMULLER42614@GMAIL.COM</t>
+          <t>10122023MULLER 100 C MAIN STREET SCITUATE RI02831</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>EMILYMULLER42614@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>10122023JACOB 20 HALL AVENUE WARREN RI02885 BEAUTYGURUU422@GMAIL.COM</t>
+          <t>10122023JACOB 20 HALL AVENUE WARREN RI02885</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>BEAUTYGURUU422@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>10122023NOTESTINE 632 PARK AVENUE APT 1R WOONSOCKET RI02895 AMOSCOLE9@GMAIL.COM</t>
+          <t>10122023NOTESTINE 632 PARK AVENUE APT 1R WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>AMOSCOLE9@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>10122023SAUCEDO 25 PINEWOOD AVENUE JOHNSTON RI02919 ASAUCEDO1993@GMAIL.COM</t>
+          <t>10122023SAUCEDO 25 PINEWOOD AVENUE JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>ASAUCEDO1993@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>10122023TINO CHICAJ 42 CHERRY STREET WARWICK RI02888 MAGALITINOL@GMAIL.COM</t>
+          <t>10122023TINO CHICAJ 42 CHERRY STREET WARWICK RI02888</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>MAGALITINOL@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>10122023KEMPSKI 86 FAIRWAY DRIVE COVENTRY RI02816 AKEMPSKI19@GMAIL.COM</t>
+          <t>10122023KEMPSKI 86 FAIRWAY DRIVE COVENTRY RI02816</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>AKEMPSKI19@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>10122023CABANA 9 KERN ACRE DRIVE JOHNSTON RI02919 PENGUINTASTIC@GMAIL.COM</t>
+          <t>10122023CABANA 9 KERN ACRE DRIVE JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>PENGUINTASTIC@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>10122023KENNEY 24 WHITE PARKWAY NORTH SMITHFIELDRI02896 SKENNEY95@GMAIL.COM</t>
+          <t>10122023KENNEY 24 WHITE PARKWAY NORTH SMITHFIELDRI02896</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>SKENNEY95@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>10122023REARDON 212 GALLATIN STREET PROVIDENCE RI02907 BETHREARDON4898@GMAIL.COM</t>
+          <t>10122023REARDON 212 GALLATIN STREET PROVIDENCE RI02907</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>BETHREARDON4898@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>10122023RABOIN 1534 PHENIX AVENUE CRANSTON RI02921 STRABOIN@GMAIL.COM</t>
+          <t>10122023RABOIN 1534 PHENIX AVENUE CRANSTON RI02921</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>STRABOIN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>10122023GESUALDI 55 MAPLE ROCK ROAD SCITUATE RI02857 OLIVIAFONTENAULT@GMAIL.COM</t>
+          <t>10122023GESUALDI 55 MAPLE ROCK ROAD SCITUATE RI02857</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>OLIVIAFONTENAULT@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>10122023SPAZIANO-COOK 10 PAULETTE STREET BURRILLVILLE RI02839 SSPAZIANO1@GMAIL.COM</t>
+          <t>10122023SPAZIANO-COOK 10 PAULETTE STREET BURRILLVILLE RI02839</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>SSPAZIANO1@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>10122023PETRONELLI 26 MORTON AVENUE JOHNSTON RI02919 NPETRONELLI88@LIVE.COM</t>
+          <t>10122023PETRONELLI 26 MORTON AVENUE JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>NPETRONELLI88@LIVE.COM</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>10122023MORENTE MORENTE 104 UNION AVENUE APT 1 PROVIDENCE RI02909 JOSETZUNUX80@GMAIL.COM</t>
+          <t>10122023MORENTE MORENTE 104 UNION AVENUE APT 1 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>JOSETZUNUX80@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>10122023FARRELL 1762 MAIN STREET WEST WARWICK RI02893 BFBRITTANY13@YAHOO.COM</t>
+          <t>10122023FARRELL 1762 MAIN STREET WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>BFBRITTANY13@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>10132023MAHMOUD 16 ROCKET STREET APT 1 WESTERLY RI02891 BREE.COSTA1994@GMAIL.COM</t>
+          <t>10132023MAHMOUD 16 ROCKET STREET APT 1 WESTERLY RI02891</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>BREE.COSTA1994@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>10132023STERNBERG 19 PRIDES CROSSING LANE SOUTH KINGSTOWN RI02874 JDANSEREAU90@GMAIL.COM</t>
+          <t>10132023STERNBERG 19 PRIDES CROSSING LANE SOUTH KINGSTOWN RI02874</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>JDANSEREAU90@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>10132023GOMES 33 LILAC STREET APT 1 PAWTUCKET RI02860 SHADYCAPER01@GMAIL.COM</t>
+          <t>10132023GOMES 33 LILAC STREET APT 1 PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>SHADYCAPER01@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>10132023PALUMBO 36 WATERCRESS COURT COVENTRY RI02816 STEP_PALUMBO@OUTLOOK.COM</t>
+          <t>10132023PALUMBO 36 WATERCRESS COURT COVENTRY RI02816</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>STEP_PALUMBO@OUTLOOK.COM</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>10132023KISER 137 LEXINGTON AVENUE CRANSTON RI02910 BATYA96@YAHOO.COM</t>
+          <t>10132023KISER 137 LEXINGTON AVENUE CRANSTON RI02910</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>BATYA96@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>10132023ESQUILIN 35 TRANSIT STREET APT 2 WOONSOCKET RI02895 T.I.ESQUILIN@GMAIL.COM</t>
+          <t>10132023ESQUILIN 35 TRANSIT STREET APT 2 WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>T.I.ESQUILIN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>10132023FEELEY COONS 6 CHASE LANE LINCOLN RI02865 MEG@FEELEY.XYZ.COM</t>
+          <t>10132023FEELEY COONS 6 CHASE LANE LINCOLN RI02865</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>MEG@FEELEY.XYZ.COM</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>10132023MICHELETTI 6 JENKINS STREET BRISTOL RI02809 FRANCESCA.S.SPINELLA@GMAIL.COM</t>
+          <t>10132023MICHELETTI 6 JENKINS STREET BRISTOL RI02809</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>FRANCESCA.S.SPINELLA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>10132023FREIER 25 BABCOCK ROAD STERLING CT06377 TARA.CAHOON23@GMAIL.COM</t>
+          <t>10132023FREIER 25 BABCOCK ROAD STERLING CT06377</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>TARA.CAHOON23@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>10132023KONINGISOR 698 PINE HILL ROAD WESTPORT MA02790 JENNY.KONINGISOR@GMAIL.COM</t>
+          <t>10132023KONINGISOR 698 PINE HILL ROAD WESTPORT MA02790</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>JENNY.KONINGISOR@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>10132023COLAPIETRO 8 PROGRESS AVENUE JOHNSTON RI02919 VICTORIACOLAPIETRO@GMAIL.COM</t>
+          <t>10132023COLAPIETRO 8 PROGRESS AVENUE JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>VICTORIACOLAPIETRO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>10132023GONZALEZ 180 SCHOOL STREET PAWTUCKET RI02860 AMYGONZALEZ93@GMAIL.COM</t>
+          <t>10132023GONZALEZ 180 SCHOOL STREET PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>AMYGONZALEZ93@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>10132023PAREDES LOPEZ 968 CENTRAL AVENUE PAWTUCKET RI02861 JEDLY_22@LIVE.COM</t>
+          <t>10132023PAREDES LOPEZ 968 CENTRAL AVENUE PAWTUCKET RI02861</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>JEDLY_22@LIVE.COM</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>10132023FLYNN 9 OHERN WAY REHOBOTH MA02769 ELKA.FLYNN@GMAIL.COM</t>
+          <t>10132023FLYNN 9 OHERN WAY REHOBOTH MA02769</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>ELKA.FLYNN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>10132023BEAULIEU 322 HIGH HILL ROAD SWANSEA MA02777 LHOPKIN3@GMAIL.COM</t>
+          <t>10132023BEAULIEU 322 HIGH HILL ROAD SWANSEA MA02777</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>LHOPKIN3@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>10142023CONTI 1 WALNUT STREET STONINGTON CT06379 DESROSIERS.KRISTEN@GMAIL.COM</t>
+          <t>10142023CONTI 1 WALNUT STREET STONINGTON CT06379</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>DESROSIERS.KRISTEN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>10142023DECOST 97 BLANDING AVENUE EAST PROVIDENCE RI02914 GRACEDECOST1994@GMAIL.COM</t>
+          <t>10142023DECOST 97 BLANDING AVENUE EAST PROVIDENCE RI02914</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>GRACEDECOST1994@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>10142023GONZALEZ HUERTA 11 SOUTH ANGELL STREET APT 358PROVIDENCE RI02906 HILLARY_G_9@HOTMAIL.COM</t>
+          <t>10142023GONZALEZ HUERTA 11 SOUTH ANGELL STREET APT 358PROVIDENCE RI02906</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>HILLARY_G_9@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>10142023SNOWDEN 105 MAGNOLIA STREET CRANSTON RI02910 TSNOWDEN49@GMAIL.COM</t>
+          <t>10142023SNOWDEN 105 MAGNOLIA STREET CRANSTON RI02910</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>TSNOWDEN49@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>10142023FREIER 284 PLEASANT STREET EAST PROVIDENCE RI02916 LIVIA.FREIER@GMAIL.COM</t>
+          <t>10142023FREIER 284 PLEASANT STREET EAST PROVIDENCE RI02916</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>LIVIA.FREIER@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>10142023FUJAH 33 RACHELA STREET JOHNSTON RI02919 SANRINE.GUILHERME@GMAIL.COM</t>
+          <t>10142023FUJAH 33 RACHELA STREET JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>SANRINE.GUILHERME@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>10142023FUJAH 33 RACHELA STREET JOHNSTON RI02919 SANRINE.GUILHERME@GMAIL.COM</t>
+          <t>10142023FUJAH 33 RACHELA STREET JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>SANRINE.GUILHERME@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>10142023PORTILLO-DEROME 33 VALLEY STREET CUMBERLAND RI02864 ASHLEYPORTILLODEROME@GMAIL.COM</t>
+          <t>10142023PORTILLO-DEROME 33 VALLEY STREET CUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>ASHLEYPORTILLODEROME@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>10142023PORTILLO-DEROME 33 VALLEY STREET CUMBERLAND RI02864 ASHLEYPORTILLODEROME@GMAIL.COM</t>
+          <t>10142023PORTILLO-DEROME 33 VALLEY STREET CUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>ASHLEYPORTILLODEROME@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>10142023MORRIS 127 BEVERLY ROAD EAST PROVIDENCE RI02915 EMILYM@MELLOGROUP.COM</t>
+          <t>10142023MORRIS 127 BEVERLY ROAD EAST PROVIDENCE RI02915</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>EMILYM@MELLOGROUP.COM</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>10112023MIECH 25 ONEIDA STREET JOHNSTON RI02919 HMIECH@GMAIL.COM</t>
+          <t>10112023MIECH 25 ONEIDA STREET JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>HMIECH@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>10142023LYNCH 60 MOOSUP VALLEY ROAD FOSTER RI02825 CATHERINE.RLYN@GMAIL.COM</t>
+          <t>10142023LYNCH 60 MOOSUP VALLEY ROAD FOSTER RI02825</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>CATHERINE.RLYN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>10142023MBYE 206 SALINA STREET PROVIDENCE RI02908 PAJARGA@GMAIL.COM</t>
+          <t>10142023MBYE 206 SALINA STREET PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>PAJARGA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>10142023LOPES 53 SOUTH STREET APT 6 WOONSOCKET RI02895 SKYLAMARIEREX3@ICLOUD.COM</t>
+          <t>10142023LOPES 53 SOUTH STREET APT 6 WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>SKYLAMARIEREX3@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>10152023ROBINSON 37 FENWOOD AVENUE SMITHFIELD RI02917 ALICIALROY@GMAIL.COM</t>
+          <t>10152023ROBINSON 37 FENWOOD AVENUE SMITHFIELD RI02917</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>ALICIALROY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>10152023FITZPATRICK 11 TAFT STREET CRANSTON RI02905 CAITFITZPA@GMAIL.COM</t>
+          <t>10152023FITZPATRICK 11 TAFT STREET CRANSTON RI02905</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>CAITFITZPA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>10152023SOUSA 37 GRATTAN STREET FALL RIVER MA02721 BABBER1519@AOL.COM</t>
+          <t>10152023SOUSA 37 GRATTAN STREET FALL RIVER MA02721</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>BABBER1519@AOL.COM</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>10152023BOSWORTH 57 MARBURY AVENUE PAWTUCKET RI02860 SBUONACCORSI@GMAIL.COM</t>
+          <t>10152023BOSWORTH 57 MARBURY AVENUE PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>SBUONACCORSI@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>10152023MEDEIROS 110 VERNON STREET APT 1 WARREN RI02885 MOLLYMENDONCA1995@GMAIL.COM</t>
+          <t>10152023MEDEIROS 110 VERNON STREET APT 1 WARREN RI02885</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>MOLLYMENDONCA1995@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>10152023MCCULLAH 239 WETHERSFIELD DRIVE WARWICK RI02886 LIZAMCCULLAH@GMAIL.COM</t>
+          <t>10152023MCCULLAH 239 WETHERSFIELD DRIVE WARWICK RI02886</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>LIZAMCCULLAH@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>10152023ADAMS 56 MAPLE AVENUE APT J208 WEST WARWICK RI02893 KRISTINA81688@GMAIL.COM</t>
+          <t>10152023ADAMS 56 MAPLE AVENUE APT J208 WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>KRISTINA81688@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>10152023MALANGONE 35 DWIGHT STREET CUMBERLAND RI02864 SALY.ELDAYAA@GMAIL.COM</t>
+          <t>10152023MALANGONE 35 DWIGHT STREET CUMBERLAND RI02864</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>SALY.ELDAYAA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>10152023SOLON 408 SHETUCKET TURNPIKE VOLUNTOWN CT06384 NIKKIPEPAS@ICLOUD.COM</t>
+          <t>10152023SOLON 408 SHETUCKET TURNPIKE VOLUNTOWN CT06384</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>NIKKIPEPAS@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>10152023LEFRANCOIS 13 FENMOOR STREET APT 3 EAST PROVIDENCE RI02914 NYKOBABY1@YAHOO.COM</t>
+          <t>10152023LEFRANCOIS 13 FENMOOR STREET APT 3 EAST PROVIDENCE RI02914</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>NYKOBABY1@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>10152023LAROCHE 819 POUND HILL ROAD NORTH SMITHFIELDRI02896 MISSLIN921@GMAIL.COM</t>
+          <t>10152023LAROCHE 819 POUND HILL ROAD NORTH SMITHFIELDRI02896</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>MISSLIN921@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>10152023DECATALDO 1020 WOONSOCKET HILL ROAD NORTH SMITHFIELDRI02896 REDECATALDO@GMAIL.COM</t>
+          <t>10152023DECATALDO 1020 WOONSOCKET HILL ROAD NORTH SMITHFIELDRI02896</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>REDECATALDO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>10152023CHACON ROJAS 37 ROWAN STREET PROVIDENCE RI02908 CLARINESCH01@GMAIL.COM</t>
+          <t>10152023CHACON ROJAS 37 ROWAN STREET PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>CLARINESCH01@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>10142023PEREZ 43 CALDER STREET CRANSTON RI02907 JEIRI302@HOTMAIL.COM</t>
+          <t>10142023PEREZ 43 CALDER STREET CRANSTON RI02907</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>JEIRI302@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>10152023ALLEY 254 HOLMES ROAD WARWICK RI02888 AMANDA.FOURNIER@YAHOO.COM</t>
+          <t>10152023ALLEY 254 HOLMES ROAD WARWICK RI02888</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>AMANDA.FOURNIER@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>10152023SANCHEZ 99 POCASSET AVENUE PROVIDENCE RI02909 ESTEPHANIALVAREZ@GMAIL.COM</t>
+          <t>10152023SANCHEZ 99 POCASSET AVENUE PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>ESTEPHANIALVAREZ@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>10132023ZINA 64 NIPMUC TRAIL WEST GREENWICH RI02817 CAIT2089@AOL.COM</t>
+          <t>10132023ZINA 64 NIPMUC TRAIL WEST GREENWICH RI02817</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>CAIT2089@AOL.COM</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>10162023CONLEY 69 ANGELL ROAD NARRAGANSETT RI02882 ACONLEY1@MY.CCRI.EDU</t>
+          <t>10162023CONLEY 69 ANGELL ROAD NARRAGANSETT RI02882</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>ACONLEY1@MY.CCRI.EDU</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>10142023FERREIRA 1525 EAST MAIN ROAD PORTSMOUTH RI02871 ALEXANDRANEKRASZ@GMAIL.COM</t>
+          <t>10142023FERREIRA 1525 EAST MAIN ROAD PORTSMOUTH RI02871</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>ALEXANDRANEKRASZ@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>10132023DEMAIO 148 ENFIELD AVENUE PROVIDENCE RI02908 ADAY8787@GMAIL.COM</t>
+          <t>10132023DEMAIO 148 ENFIELD AVENUE PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>ADAY8787@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>10152023BROWN 176 SAYLES STREET STREET APT 3WOONSOCKET RI02895 VACANTHOME@GMAIL.COM</t>
+          <t>10152023BROWN 176 SAYLES STREET STREET APT 3WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>VACANTHOME@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>10132023GOLDSTEIN 39 ROLENS DRIVE APT B4 SOUTH KINGSTOWN RI02881 TZIPTZIPPY@GMAIL.COM</t>
+          <t>10132023GOLDSTEIN 39 ROLENS DRIVE APT B4 SOUTH KINGSTOWN RI02881</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>TZIPTZIPPY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>10162023NSALAMBI 72 ROSEDALE STREET APT 3 PROVIDENCE RI02909 JESSICANSALAMBI@GMAIL.COM</t>
+          <t>10162023NSALAMBI 72 ROSEDALE STREET APT 3 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>JESSICANSALAMBI@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>10162023MORREO 37 GRAND AVENUE PAWTUCKET RI02861 MORREOH12@GMAIL.COM</t>
+          <t>10162023MORREO 37 GRAND AVENUE PAWTUCKET RI02861</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>MORREOH12@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>10162023AGRAMONTE 276 SECOND AVENUE WOONSOCKET RI02895 C.AGRAMONTE21@GMAIL.COM</t>
+          <t>10162023AGRAMONTE 276 SECOND AVENUE WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>C.AGRAMONTE21@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>10162023DOTI 2 LEVEILLEE STREET APT 1 COVENTRY RI02816 HANNAHDOTI7@GMAIL.COM</t>
+          <t>10162023DOTI 2 LEVEILLEE STREET APT 1 COVENTRY RI02816</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>HANNAHDOTI7@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>10162023RICHARDS 110 MEADOW ROAD NORTH PROVIDENCERI02904 SUNIX13@GMAIL.COM</t>
+          <t>10162023RICHARDS 110 MEADOW ROAD NORTH PROVIDENCERI02904</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>SUNIX13@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>10162023BOARDMAN-SULLIVAN 1517 MAIN STREET APT 2 WEST WARWICK RI02893 CARISSASULLIVAN@AOL.COM</t>
+          <t>10162023BOARDMAN-SULLIVAN 1517 MAIN STREET APT 2 WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>CARISSASULLIVAN@AOL.COM</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>10172023ALMON BELTRE 35 ARCH STREET APT 1 PAWTUCKET RI02860 JENNY_ALMON04@HOTMAIL.COM</t>
+          <t>10172023ALMON BELTRE 35 ARCH STREET APT 1 PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>JENNY_ALMON04@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>10172023ARMSTRONG 45 CHATHAM ROAD CRANSTON RI02920 KAITLINARMSTRONG7@GMAIL.COM</t>
+          <t>10172023ARMSTRONG 45 CHATHAM ROAD CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>KAITLINARMSTRONG7@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>10162023ALCHALABI 79 OLD RIVER ROAD LINCOLN RI02865 AREEJALCHALABI@GMAIL.COM</t>
+          <t>10162023ALCHALABI 79 OLD RIVER ROAD LINCOLN RI02865</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>AREEJALCHALABI@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>10162023CASIMIRO 75 SUNSET DRIVE EAST GREENWICH RI02818 ERINCASIMIRO@GMAIL.COM</t>
+          <t>10162023CASIMIRO 75 SUNSET DRIVE EAST GREENWICH RI02818</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>ERINCASIMIRO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>10162023GUNDE 88 MILL STREET APT 104 WOONSOCKET RI02895 SRILATHA.DOCS518@GMAIL.COM</t>
+          <t>10162023GUNDE 88 MILL STREET APT 104 WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>SRILATHA.DOCS518@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>10162023POOLER 16 BONNEY STREET COVENTRY RI02816 JAZMINPOOLER32@YAHOO.COM</t>
+          <t>10162023POOLER 16 BONNEY STREET COVENTRY RI02816</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>JAZMINPOOLER32@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>10162023NUNES 21 HOMER STREET NEWPORT RI02840 HILLARY.KENT21@GMAIL.COM</t>
+          <t>10162023NUNES 21 HOMER STREET NEWPORT RI02840</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>HILLARY.KENT21@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>10172023GAFFNEY 20 PROSPECT STREET APT 2 TAUNTON MA02780 JOURDANCHILDS@GMAIL.COM</t>
+          <t>10172023GAFFNEY 20 PROSPECT STREET APT 2 TAUNTON MA02780</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>JOURDANCHILDS@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>10172023JAREST 27 CAPITAL VIEW AVENUE APT 3 NORTH PROVIDENCERI02908 MJAREST728@GMAIL.COM</t>
+          <t>10172023JAREST 27 CAPITAL VIEW AVENUE APT 3 NORTH PROVIDENCERI02908</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>MJAREST728@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>10172023NGUYEN 20 PRESIDENT AVENUE PORTSMOUTH RI02871 THUCUYENCR@GMAIL.COM</t>
+          <t>10172023NGUYEN 20 PRESIDENT AVENUE PORTSMOUTH RI02871</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>THUCUYENCR@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>10172023BOTELHO 60 LIBERTY STREET APT 3 CENTRAL FALLS RI02863 MHARDING1216@GMAIL.COM</t>
+          <t>10172023BOTELHO 60 LIBERTY STREET APT 3 CENTRAL FALLS RI02863</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>MHARDING1216@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>10172023WONG 145 HARDING STREET MEDFIELD MA02052 WONG.VIRG@GMAIL.COM</t>
+          <t>10172023WONG 145 HARDING STREET MEDFIELD MA02052</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>WONG.VIRG@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>10172023BISCONTI 333 COMSTOCK PARKWAY CRANSTON RI02921 MIKEBISCONTI@GMAIL.COM</t>
+          <t>10172023BISCONTI 333 COMSTOCK PARKWAY CRANSTON RI02921</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>MIKEBISCONTI@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>10172023CSISAR 35 DESMAR COURT WARWICK RI02889 ELIN.CSISAR@HOTMAIL.COM</t>
+          <t>10172023CSISAR 35 DESMAR COURT WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>ELIN.CSISAR@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>10172023PIMENTAL 44 BORDER STREET WEST WARWICK RI02893 KAYLAHICK@GMAIL.COM</t>
+          <t>10172023PIMENTAL 44 BORDER STREET WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>KAYLAHICK@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>10182023ZULUAGA 251 OLD COUNTY ROAD SMITHFIELD RI02917 SHANNON.ZULUAGA@GMAIL.COM</t>
+          <t>10182023ZULUAGA 251 OLD COUNTY ROAD SMITHFIELD RI02917</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>SHANNON.ZULUAGA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>10172023SHACKLETON 239 SANDY LANE WARWICK RI02889 KRWILEY1@GMAIL.COM</t>
+          <t>10172023SHACKLETON 239 SANDY LANE WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>KRWILEY1@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>10172023SIERRA LAVARREDA 57 CAMBRIDGE AVENUE WARWICK RI02889 SIERRAIVANNA6@GMAIL.COM</t>
+          <t>10172023SIERRA LAVARREDA 57 CAMBRIDGE AVENUE WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>SIERRAIVANNA6@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>10172023OISAMAIYE 196 OLD RIVER ROAD APT 517 LINCOLN RI02865 LOREOISA29@GMAIL.COM</t>
+          <t>10172023OISAMAIYE 196 OLD RIVER ROAD APT 517 LINCOLN RI02865</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>LOREOISA29@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>10172023GOMEZ 63 UNIT STREET APT 1ST FL PROVIDENCE RI02909 TIARAGOMEZ0920@GMAIL.COM</t>
+          <t>10172023GOMEZ 63 UNIT STREET APT 1ST FL PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>TIARAGOMEZ0920@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>10182023MERCEDES SIERRA 35 REYNOLDS AVENUE APT 2 PROVIDENCE RI02905 MERCEDESFLORY1@GMAIL.COM</t>
+          <t>10182023MERCEDES SIERRA 35 REYNOLDS AVENUE APT 2 PROVIDENCE RI02905</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>MERCEDESFLORY1@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>10172023VALENTINE 21 WHELAN ROAD APT 5 PROVIDENCE RI02909 TINAMARIAVALENTINE@GMAIL.COM</t>
+          <t>10172023VALENTINE 21 WHELAN ROAD APT 5 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>TINAMARIAVALENTINE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>10172023NIHON 30 E BOWERY STREET NEWPORT RI02840 CAITLIN.NIHON@GMAIL.COM</t>
+          <t>10172023NIHON 30 E BOWERY STREET NEWPORT RI02840</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>CAITLIN.NIHON@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>10172023CORONA 748 HARRIS AVENUE APT 1ST FL WOONSOCKET RI02895 LEXIECORONA2@GMAIL.COM</t>
+          <t>10172023CORONA 748 HARRIS AVENUE APT 1ST FL WOONSOCKET RI02895</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>LEXIECORONA2@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>10182023MCGOVERN 33 OLD SPRING ROAD CRANSTON RI02920 AMPEZZILLO@GMAIL.COM</t>
+          <t>10182023MCGOVERN 33 OLD SPRING ROAD CRANSTON RI02920</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>AMPEZZILLO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>10182023VERAS 382 SMITH STREET APT 1ST FLOORCRANSTON RI02905 ELCABANOL@HOT.COM</t>
+          <t>10182023VERAS 382 SMITH STREET APT 1ST FLOORCRANSTON RI02905</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>ELCABANOL@HOT.COM</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>10182023YOAKUM 11 GETCHELL STREET NORTH SMITHFIELDRI02896 ASHLEY.YOAKUM94@ICLOUD.COM</t>
+          <t>10182023YOAKUM 11 GETCHELL STREET NORTH SMITHFIELDRI02896</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>ASHLEY.YOAKUM94@ICLOUD.COM</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>10182023FAZAL 26 SUNSET AVENUE APT C PROVIDENCE RI02909 MADEEHAFAZAL1992@GMAIL.COM</t>
+          <t>10182023FAZAL 26 SUNSET AVENUE APT C PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>MADEEHAFAZAL1992@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>10182023ESPINAL ALMONTE 14 NORWICH AVENUE APT 2 PROVIDENCE RI02905 ESPINALLILIAN47@GMAIL.COM</t>
+          <t>10182023ESPINAL ALMONTE 14 NORWICH AVENUE APT 2 PROVIDENCE RI02905</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>ESPINALLILIAN47@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>10182023DOMBROWSKI 66 PLANET AVENUE EAST PROVIDENCE RI02915 TERESADOMBROWSKICRUZ@GMAIL.COM</t>
+          <t>10182023DOMBROWSKI 66 PLANET AVENUE EAST PROVIDENCE RI02915</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>TERESADOMBROWSKICRUZ@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>10182023DELOMBA 57 BROWNELL STREET PROVIDENCE RI02907 CRYSTALDELOMBA27@GMAIL.COM</t>
+          <t>10182023DELOMBA 57 BROWNELL STREET PROVIDENCE RI02907</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>CRYSTALDELOMBA27@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>10182023YANG 125 5TH AVENUE WARWICK RI02888 MYANG_3935@HOTMAIL.COM</t>
+          <t>10182023YANG 125 5TH AVENUE WARWICK RI02888</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>MYANG_3935@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>10182023VARGAS VENTURA 61 DETROIT AVENUE APT 1 PROVIDENCE RI02907 PAMELAYAMINA17@GMAIL.COM</t>
+          <t>10182023VARGAS VENTURA 61 DETROIT AVENUE APT 1 PROVIDENCE RI02907</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>PAMELAYAMINA17@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>10182023CLARK 519 D PUTNAM PIKE GLOCESTER RI02814 SCLARK168@AOL.COM</t>
+          <t>10182023CLARK 519 D PUTNAM PIKE GLOCESTER RI02814</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>SCLARK168@AOL.COM</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>10182023AGUILERA 105 ETHAN STREET APT 1 PROVIDENCE RI02909 YICAURI99@GMAIL.COM</t>
+          <t>10182023AGUILERA 105 ETHAN STREET APT 1 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>YICAURI99@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>10192023MELENDEZ 39 OAKLAND DRIVE WEST WARWICK RI02893 AUDRAMELENDEZ92@GMAIL.COM</t>
+          <t>10192023MELENDEZ 39 OAKLAND DRIVE WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>AUDRAMELENDEZ92@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>10192023RAMIREZ 39 CORMIER ROAD LINCOLN RI02865 JMBITAR824@AOL.COM</t>
+          <t>10192023RAMIREZ 39 CORMIER ROAD LINCOLN RI02865</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>JMBITAR824@AOL.COM</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>10192023RAYMOND 843 VICTORY HIGHWAY BURRILLVILLE RI02839 SAVOYHILLARY@GMAIL.COM</t>
+          <t>10192023RAYMOND 843 VICTORY HIGHWAY BURRILLVILLE RI02839</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>SAVOYHILLARY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>10192023GUSTAITIS 143 MIDGET AVENUE WARWICK RI02886 FALLON.GUSTAITIS@OUTLOOK.COM</t>
+          <t>10192023GUSTAITIS 143 MIDGET AVENUE WARWICK RI02886</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>FALLON.GUSTAITIS@OUTLOOK.COM</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>10192023GUSTAITIS 143 MIDGET AVENUE WARWICK RI02886 FALLON.GUSTAITIS@OUTLOOK.COM</t>
+          <t>10192023GUSTAITIS 143 MIDGET AVENUE WARWICK RI02886</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>FALLON.GUSTAITIS@OUTLOOK.COM</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>10192023HALLOCK 43 DUNCAN AVENUE PROVIDENCE RI02906 HALLOCK.RACHEL@GMAIL.COM</t>
+          <t>10192023HALLOCK 43 DUNCAN AVENUE PROVIDENCE RI02906</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>HALLOCK.RACHEL@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>10192023CHACH ORTIZ 22 BARROWS STREET APT 1 PROVIDENCE RI02909 ORIZMARITZA@GMAIL.COM</t>
+          <t>10192023CHACH ORTIZ 22 BARROWS STREET APT 1 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>ORIZMARITZA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>10192023BALL 97 SPRINGFIELD AVENUE JOHNSTON RI02919 MARIAHHALTON@GMAIL.COM</t>
+          <t>10192023BALL 97 SPRINGFIELD AVENUE JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>MARIAHHALTON@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>10192023DURANT 110 WATERMAN AVENUE APT 2 EAST PROVIDENCE RI02914 A.SILVAHH@HOTMAIL.COM</t>
+          <t>10192023DURANT 110 WATERMAN AVENUE APT 2 EAST PROVIDENCE RI02914</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>A.SILVAHH@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>10192023HILL-GAZERRO 2717C COMD OLIVER HAZARD PERRYSOUTH KINGSTOWN RI02879 CGAZERROL@GMAIL.COM</t>
+          <t>10192023HILL-GAZERRO 2717C COMD OLIVER HAZARD PERRYSOUTH KINGSTOWN RI02879</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>CGAZERROL@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>10192023MOORE 16 MORTON COURT APT 3 NEW BEDFORD MA02744 DLANEMOORE860808@GMAIL.COM</t>
+          <t>10192023MOORE 16 MORTON COURT APT 3 NEW BEDFORD MA02744</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>DLANEMOORE860808@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>10192023GRIFFITHS-HINKEN 21 WILSON ROAD FALL RIVER MA02726 TINA-GRIFF1@OUTLOOK.COM</t>
+          <t>10192023GRIFFITHS-HINKEN 21 WILSON ROAD FALL RIVER MA02726</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>TINA-GRIFF1@OUTLOOK.COM</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>10192023COSTA 10 ARTHUR AVENUE WARREN RI02885 LAURENCOSTA414@GMAIL.COM</t>
+          <t>10192023COSTA 10 ARTHUR AVENUE WARREN RI02885</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>LAURENCOSTA414@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>10192023COSTA 10 ARTHUR AVENUE WARREN RI02885 LAURENCOSTA414@GMAIL.COM</t>
+          <t>10192023COSTA 10 ARTHUR AVENUE WARREN RI02885</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>LAURENCOSTA414@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>10202023ZOTA 181 COTTAGE STREET APT 3RD FLOWARWICK RI02886 ELIZABETHQZOTA@GMAIL.COM</t>
+          <t>10202023ZOTA 181 COTTAGE STREET APT 3RD FLOWARWICK RI02886</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>ELIZABETHQZOTA@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>10192023PAOLELLA 39 NORWOOD AVENUE CRANSTON RI02905 GRDELGRECO@GMAIL.COM</t>
+          <t>10192023PAOLELLA 39 NORWOOD AVENUE CRANSTON RI02905</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>GRDELGRECO@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>10202023ROSARIO 31 COVELL STREET APT 3 PROVIDENCE RI02909 CARMELINAR624@GMAIL.COM</t>
+          <t>10202023ROSARIO 31 COVELL STREET APT 3 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>CARMELINAR624@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>10202023RILEY 48 UNION STREET WARREN RI02885 JUSTICEST.GEORGE300@GMAIL.COM</t>
+          <t>10202023RILEY 48 UNION STREET WARREN RI02885</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>JUSTICEST.GEORGE300@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>10202023PENG 29 CARRS LANE WARWICK RI02886 YZHANG421@YAHOO.COM</t>
+          <t>10202023PENG 29 CARRS LANE WARWICK RI02886</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>YZHANG421@YAHOO.COM</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>10202023NELSON 78 HALEY ROAD WARWICK RI02889 JESSICANELSON0911@GMAIL.COM</t>
+          <t>10202023NELSON 78 HALEY ROAD WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>JESSICANELSON0911@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>10202023WALSH 48 BOLTON ROAD DARTMOUTH MA02748 LOPEZJ0103@GMAIL.COM</t>
+          <t>10202023WALSH 48 BOLTON ROAD DARTMOUTH MA02748</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>LOPEZJ0103@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>10202023DUMONT 12 COMMER AVENUE WARREN RI02885 CAITLIN.SOUZA247@GMAIL.COM</t>
+          <t>10202023DUMONT 12 COMMER AVENUE WARREN RI02885</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>CAITLIN.SOUZA247@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>10202023BOUCHER 91 GERVAIS STREET COVENTRY RI02816 KARALBOUCHER@GMAIL.COM</t>
+          <t>10202023BOUCHER 91 GERVAIS STREET COVENTRY RI02816</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>KARALBOUCHER@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>10212023COLON 56 LINWOOD AVENUE APT 2 PROVIDENCE RI02909 CRYSTAL.S.COLON@GMAIL.COM</t>
+          <t>10212023COLON 56 LINWOOD AVENUE APT 2 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>CRYSTAL.S.COLON@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>10202023GOUVEIA 23 BOWEN STREET PAWTUCKET RI02860 SIMPLEASH.X@GMAIL.COM</t>
+          <t>10202023GOUVEIA 23 BOWEN STREET PAWTUCKET RI02860</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>SIMPLEASH.X@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>10212023DUFFY 335 RIVER AVENUE PROVIDENCE RI02908 SGRADY.CTK@GMAIL.COM</t>
+          <t>10212023DUFFY 335 RIVER AVENUE PROVIDENCE RI02908</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>SGRADY.CTK@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>10212023VARONE 48 LEROY AVENUE WARWICK RI02889 MIKAYLA.VERONE215@GMAIL.COM</t>
+          <t>10212023VARONE 48 LEROY AVENUE WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>MIKAYLA.VERONE215@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>10222023GEISER 129 NOTTINGHAM DRIVE WEST WARWICK RI02893 GEISERAC1@GMAIL.COM</t>
+          <t>10222023GEISER 129 NOTTINGHAM DRIVE WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>GEISERAC1@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>10212023HEBERT 102 PETERS WAY NORTH ATTLEBOROUMA02760 BARRETTE.MARIE@GMAIL.COM</t>
+          <t>10212023HEBERT 102 PETERS WAY NORTH ATTLEBOROUMA02760</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>BARRETTE.MARIE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>10212023HEBERT 102 PETERS WAY NORTH ATTLEBOROUMA02760 BARRETTE.MARIE@GMAIL.COM</t>
+          <t>10212023HEBERT 102 PETERS WAY NORTH ATTLEBOROUMA02760</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>BARRETTE.MARIE@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>10212023SHAW 209 GRAYSON AVENUE WARWICK RI02886 GRACEELIZABETHSHAW@GMAIL.COM</t>
+          <t>10212023SHAW 209 GRAYSON AVENUE WARWICK RI02886</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>GRACEELIZABETHSHAW@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>10212023FRIED 91 BROOKEHAVEN DRIVE EAST PROVIDENCE RI02914 MLF419@AOL.COM</t>
+          <t>10212023FRIED 91 BROOKEHAVEN DRIVE EAST PROVIDENCE RI02914</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>MLF419@AOL.COM</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>10222023PERRY 41 BARNES STREET APT 2 FALL RIVER MA02723 PERRY.ALY3@GMAIL.COM</t>
+          <t>10222023PERRY 41 BARNES STREET APT 2 FALL RIVER MA02723</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>PERRY.ALY3@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>10222023SANCHEZ 141 TWEED STREET APT 2 PAWTUCKET RI02861 ASANCHEZ.MFEC@GMAIL.COM</t>
+          <t>10222023SANCHEZ 141 TWEED STREET APT 2 PAWTUCKET RI02861</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>ASANCHEZ.MFEC@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>10222023KETCHAM 20 WOODMIST CIRCLE COVENTRY RI02816 BKKETCHAM@GMAIL.COM</t>
+          <t>10222023KETCHAM 20 WOODMIST CIRCLE COVENTRY RI02816</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>BKKETCHAM@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>10222023COOK 120 PHILLIPS ROAD EAST GREENWICH RI02818 COOK.JOY.M@GMAIL.COM</t>
+          <t>10222023COOK 120 PHILLIPS ROAD EAST GREENWICH RI02818</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>COOK.JOY.M@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>10222023WILLIAMS 481 CHARLES STREET APT 3 PROVIDENCE RI02904 NAOMIWILLIAMS1956@GMAIL.COM</t>
+          <t>10222023WILLIAMS 481 CHARLES STREET APT 3 PROVIDENCE RI02904</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>NAOMIWILLIAMS1956@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>10232023PEPPER 25 INGLESIDE AVENUE CRANSTON RI02905 PEPPERESTES@GMAIL.COM</t>
+          <t>10232023PEPPER 25 INGLESIDE AVENUE CRANSTON RI02905</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>PEPPERESTES@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>10222023CANTE 10 SUMNER AVENUE APT 1 CENTRAL FALLS RI02863 VJESSICA36@GMAIL.COM</t>
+          <t>10222023CANTE 10 SUMNER AVENUE APT 1 CENTRAL FALLS RI02863</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>VJESSICA36@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>10212023PACHECO 699 CHURCH AVENUE WARWICK RI02889 STEPHANIEBROOKLYN2017@GMAIL.COM</t>
+          <t>10212023PACHECO 699 CHURCH AVENUE WARWICK RI02889</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>STEPHANIEBROOKLYN2017@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>10212023LAUREANO ESTRELLA 164 ALVERSON AVENUE APT 1 PROVIDENCE RI02909 RAFAELINA2003@OUTLOOOK.COM</t>
+          <t>10212023LAUREANO ESTRELLA 164 ALVERSON AVENUE APT 1 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>RAFAELINA2003@OUTLOOOK.COM</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>10202023PERRY 11 JODOIN STREET WEST WARWICK RI02893 GRETCHINPERRY@GMAIL.COM</t>
+          <t>10202023PERRY 11 JODOIN STREET WEST WARWICK RI02893</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>GRETCHINPERRY@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>10222023BARROSO 19 METCALF AVENUE APT 2 NORTH PROVIDENCERI02911 JOSE3512138@GMAIL.COM</t>
+          <t>10222023BARROSO 19 METCALF AVENUE APT 2 NORTH PROVIDENCERI02911</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>JOSE3512138@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>10212023FERRI 29 SOUTH ROAD EXETER RI02822 CERA.FERRI16@GMAIL.COM</t>
+          <t>10212023FERRI 29 SOUTH ROAD EXETER RI02822</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>CERA.FERRI16@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>10232023CHAMPLIN 25 CAMP YAWGOO ROAD HOPKINTON RI02873 MMCHAMPLIN@GMAIL.COM</t>
+          <t>10232023CHAMPLIN 25 CAMP YAWGOO ROAD HOPKINTON RI02873</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>MMCHAMPLIN@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>10232023SERMINI 51 LITTLE WOODS PATH SOUTH KINGSTOWN RI02879 SHANNON.SERMINI@GMAIL.COM</t>
+          <t>10232023SERMINI 51 LITTLE WOODS PATH SOUTH KINGSTOWN RI02879</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>SHANNON.SERMINI@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>10232023TLATENCHI GARCIA 44 BELLEVUE AVENUE WESTERLY RI02891 YARE_TG@HOTMAIL.COM</t>
+          <t>10232023TLATENCHI GARCIA 44 BELLEVUE AVENUE WESTERLY RI02891</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>YARE_TG@HOTMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>10232023GUTIERREZ 101 LINWOOD AVENUE APT 1 PROVIDENCE RI02909 MORENOJUAN6011@GMAIL.COM</t>
+          <t>10232023GUTIERREZ 101 LINWOOD AVENUE APT 1 PROVIDENCE RI02909</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>MORENOJUAN6011@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>10232023ALMEIDA 9 LAKESIDE DRIVE JOHNSTON RI02919 VSANTANIELLO0875@GMAIL.COM</t>
+          <t>10232023ALMEIDA 9 LAKESIDE DRIVE JOHNSTON RI02919</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>VSANTANIELLO0875@GMAIL.COM</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>10232023ALMONTE 46 LARCH STREET EAST PROVIDENCE RI02914 DALMONTE16@GMAIL.COMM</t>
+          <t>10232023ALMONTE 46 LARCH STREET EAST PROVIDENCE RI02914</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>DALMONTE16@GMAIL.COMM</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>10232023EGAN 26 CONANICUT ROAD APT UNIT A NARRAGANSETT RI02882 ALANA.E.LEONG@GMAIL.COM</t>
+          <t>10232023EGAN 26 CONANICUT ROAD APT UNIT A NARRAGANSETT RI02882</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>ALANA.E.LEONG@GMAIL.COM</t>
         </is>
       </c>
     </row>
